--- a/data/2012-2016.xlsx
+++ b/data/2012-2016.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/467c654f4c46f2a2/Desktop/cic-alumni/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_1FA54521D2B8087F1678E2C717432A44ED89D03F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -496,50 +505,55 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -547,7 +561,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -557,11 +571,21 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -570,17 +594,22 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -589,103 +618,113 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -875,30 +914,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.25"/>
-    <col customWidth="1" min="2" max="2" width="29.75"/>
-    <col customWidth="1" min="3" max="3" width="19.88"/>
-    <col customWidth="1" min="4" max="4" width="33.75"/>
-    <col customWidth="1" min="5" max="5" width="35.38"/>
-    <col customWidth="1" min="6" max="6" width="27.88"/>
-    <col customWidth="1" min="7" max="7" width="36.75"/>
-    <col customWidth="1" min="8" max="8" width="28.75"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.77734375" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" customWidth="1"/>
+    <col min="7" max="7" width="36.77734375" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:29">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -929,7 +973,7 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -976,7 +1020,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:29">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1007,7 +1051,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:29">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1048,7 +1092,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:29">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1089,7 +1133,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:29">
       <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
@@ -1097,7 +1141,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="9">
-        <v>9.899522926E9</v>
+        <v>9899522926</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
@@ -1136,7 +1180,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:29">
       <c r="A7" s="14" t="s">
         <v>25</v>
       </c>
@@ -1144,7 +1188,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="9">
-        <v>9.9102742E9</v>
+        <v>9910274200</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>9</v>
@@ -1177,7 +1221,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:29">
       <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
@@ -1185,7 +1229,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="9">
-        <v>9.873380344E9</v>
+        <v>9873380344</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>9</v>
@@ -1222,7 +1266,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:29">
       <c r="A9" s="14" t="s">
         <v>33</v>
       </c>
@@ -1230,7 +1274,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="9">
-        <v>9.716767215E9</v>
+        <v>9716767215</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>9</v>
@@ -1267,7 +1311,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:29">
       <c r="A10" s="14" t="s">
         <v>38</v>
       </c>
@@ -1275,7 +1319,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="9">
-        <v>9.871502804E9</v>
+        <v>9871502804</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>9</v>
@@ -1308,7 +1352,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:29">
       <c r="A11" s="14" t="s">
         <v>41</v>
       </c>
@@ -1316,7 +1360,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="9">
-        <v>9.873693692E9</v>
+        <v>9873693692</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>9</v>
@@ -1349,7 +1393,7 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:29">
       <c r="A12" s="14" t="s">
         <v>44</v>
       </c>
@@ -1357,7 +1401,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="9">
-        <v>9.717508893E9</v>
+        <v>9717508893</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>46</v>
@@ -1394,7 +1438,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:29">
       <c r="A13" s="14" t="s">
         <v>50</v>
       </c>
@@ -1402,7 +1446,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="9">
-        <v>9.811157293E9</v>
+        <v>9811157293</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>9</v>
@@ -1441,7 +1485,7 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:29">
       <c r="A14" s="14" t="s">
         <v>56</v>
       </c>
@@ -1449,7 +1493,7 @@
         <v>57</v>
       </c>
       <c r="C14" s="9">
-        <v>9.891661654E9</v>
+        <v>9891661654</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>58</v>
@@ -1486,7 +1530,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:29">
       <c r="A15" s="14" t="s">
         <v>62</v>
       </c>
@@ -1494,7 +1538,7 @@
         <v>63</v>
       </c>
       <c r="C15" s="9">
-        <v>9.711538913E9</v>
+        <v>9711538913</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>9</v>
@@ -1531,7 +1575,7 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:29" ht="30">
       <c r="A16" s="14" t="s">
         <v>67</v>
       </c>
@@ -1539,7 +1583,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="9">
-        <v>9.811155519E9</v>
+        <v>9811155519</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>69</v>
@@ -1578,7 +1622,7 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:29" ht="15">
       <c r="A17" s="14" t="s">
         <v>74</v>
       </c>
@@ -1586,7 +1630,7 @@
         <v>75</v>
       </c>
       <c r="C17" s="9">
-        <v>8.80216385E9</v>
+        <v>8802163850</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>76</v>
@@ -1623,7 +1667,7 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:29" ht="15">
       <c r="A18" s="14" t="s">
         <v>80</v>
       </c>
@@ -1631,7 +1675,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="9">
-        <v>9.711936996E9</v>
+        <v>9711936996</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>82</v>
@@ -1670,7 +1714,7 @@
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:29" ht="30">
       <c r="A19" s="14" t="s">
         <v>87</v>
       </c>
@@ -1678,7 +1722,7 @@
         <v>88</v>
       </c>
       <c r="C19" s="9">
-        <v>9.95880686E9</v>
+        <v>9958806860</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>9</v>
@@ -1715,7 +1759,7 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:29" ht="15">
       <c r="A20" s="14" t="s">
         <v>92</v>
       </c>
@@ -1723,7 +1767,7 @@
         <v>93</v>
       </c>
       <c r="C20" s="9">
-        <v>9.540912191E9</v>
+        <v>9540912191</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
@@ -1756,7 +1800,7 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:29" ht="15">
       <c r="A21" s="14" t="s">
         <v>96</v>
       </c>
@@ -1764,7 +1808,7 @@
         <v>97</v>
       </c>
       <c r="C21" s="9">
-        <v>9.013297009E9</v>
+        <v>9013297009</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>76</v>
@@ -1799,7 +1843,7 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:29" ht="30">
       <c r="A22" s="14" t="s">
         <v>100</v>
       </c>
@@ -1807,7 +1851,7 @@
         <v>101</v>
       </c>
       <c r="C22" s="9">
-        <v>9.899053909E9</v>
+        <v>9899053909</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>9</v>
@@ -1844,7 +1888,7 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:29" ht="26.4">
       <c r="A23" s="14" t="s">
         <v>104</v>
       </c>
@@ -1852,7 +1896,7 @@
         <v>105</v>
       </c>
       <c r="C23" s="9">
-        <v>8.285166816E9</v>
+        <v>8285166816</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="12" t="s">
@@ -1885,7 +1929,7 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:29" ht="15">
       <c r="A24" s="14" t="s">
         <v>108</v>
       </c>
@@ -1893,7 +1937,7 @@
         <v>109</v>
       </c>
       <c r="C24" s="9">
-        <v>8.586897802E9</v>
+        <v>8586897802</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>110</v>
@@ -1930,7 +1974,7 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:29" ht="15">
       <c r="A25" s="14" t="s">
         <v>114</v>
       </c>
@@ -1938,7 +1982,7 @@
         <v>115</v>
       </c>
       <c r="C25" s="9">
-        <v>9.953290124E9</v>
+        <v>9953290124</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>76</v>
@@ -1975,7 +2019,7 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:29" ht="15">
       <c r="A26" s="14" t="s">
         <v>119</v>
       </c>
@@ -1983,7 +2027,7 @@
         <v>120</v>
       </c>
       <c r="C26" s="9">
-        <v>9.958870413E9</v>
+        <v>9958870413</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>9</v>
@@ -2020,7 +2064,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:29" ht="15">
       <c r="A27" s="14" t="s">
         <v>123</v>
       </c>
@@ -2028,7 +2072,7 @@
         <v>124</v>
       </c>
       <c r="C27" s="9">
-        <v>9.716700694E9</v>
+        <v>9716700694</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>125</v>
@@ -2067,7 +2111,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:29" ht="15">
       <c r="A28" s="14" t="s">
         <v>130</v>
       </c>
@@ -2075,7 +2119,7 @@
         <v>131</v>
       </c>
       <c r="C28" s="9">
-        <v>7.503272707E9</v>
+        <v>7503272707</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>132</v>
@@ -2112,7 +2156,7 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:29" ht="30">
       <c r="A29" s="14" t="s">
         <v>135</v>
       </c>
@@ -2120,7 +2164,7 @@
         <v>136</v>
       </c>
       <c r="C29" s="9">
-        <v>9.911120316E9</v>
+        <v>9911120316</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>137</v>
@@ -2157,7 +2201,7 @@
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:29" ht="26.4">
       <c r="A30" s="14" t="s">
         <v>141</v>
       </c>
@@ -2165,7 +2209,7 @@
         <v>142</v>
       </c>
       <c r="C30" s="9">
-        <v>9.716288045E9</v>
+        <v>9716288045</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>9</v>
@@ -2198,7 +2242,7 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:29" ht="13.2">
       <c r="A31" s="14" t="s">
         <v>144</v>
       </c>
@@ -2206,7 +2250,7 @@
         <v>145</v>
       </c>
       <c r="C31" s="9">
-        <v>9.811096657E9</v>
+        <v>9811096657</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="12"/>
@@ -2235,7 +2279,7 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:29" ht="13.2">
       <c r="A32" s="14" t="s">
         <v>146</v>
       </c>
@@ -2243,7 +2287,7 @@
         <v>147</v>
       </c>
       <c r="C32" s="9">
-        <v>9.013982252E9</v>
+        <v>9013982252</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="12"/>
@@ -2272,7 +2316,7 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:29" ht="13.2">
       <c r="A33" s="14" t="s">
         <v>148</v>
       </c>
@@ -2280,7 +2324,7 @@
         <v>149</v>
       </c>
       <c r="C33" s="9">
-        <v>7.838976486E9</v>
+        <v>7838976486</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="12"/>
@@ -2309,7 +2353,7 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:29" ht="30">
       <c r="A34" s="14" t="s">
         <v>150</v>
       </c>
@@ -2317,7 +2361,7 @@
         <v>151</v>
       </c>
       <c r="C34" s="9">
-        <v>9.999871583E9</v>
+        <v>9999871583</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>152</v>
@@ -2350,7 +2394,7 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:29" ht="15">
       <c r="A35" s="17" t="s">
         <v>154</v>
       </c>
@@ -2358,7 +2402,7 @@
         <v>155</v>
       </c>
       <c r="C35" s="19">
-        <v>8.800260858E9</v>
+        <v>8800260858</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>9</v>
@@ -2397,7 +2441,7 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:29" ht="13.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="21"/>
@@ -2428,7 +2472,7 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:29" ht="13.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="21"/>
@@ -2459,7 +2503,7 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:29" ht="13.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="21"/>
@@ -2490,7 +2534,7 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:29" ht="13.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="21"/>
@@ -2521,7 +2565,7 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:29" ht="13.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="21"/>
@@ -2552,7 +2596,7 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:29" ht="13.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="21"/>
@@ -2583,7 +2627,7 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:29" ht="13.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="21"/>
@@ -2614,7 +2658,7 @@
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:29" ht="13.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="21"/>
@@ -2645,7 +2689,7 @@
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:29" ht="13.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="21"/>
@@ -2676,7 +2720,7 @@
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:29" ht="13.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="21"/>
@@ -2707,7 +2751,7 @@
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:29" ht="13.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="21"/>
@@ -2738,7 +2782,7 @@
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:29" ht="13.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="21"/>
@@ -2769,7 +2813,7 @@
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:29" ht="13.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="21"/>
@@ -2800,7 +2844,7 @@
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:29" ht="13.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="21"/>
@@ -2831,7 +2875,7 @@
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:29" ht="13.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="21"/>
@@ -2862,7 +2906,7 @@
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:29" ht="13.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="21"/>
@@ -2893,7 +2937,7 @@
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:29" ht="13.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="21"/>
@@ -2924,7 +2968,7 @@
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:29" ht="13.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="21"/>
@@ -2955,7 +2999,7 @@
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:29" ht="13.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="21"/>
@@ -2986,7 +3030,7 @@
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:29" ht="13.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="21"/>
@@ -3017,7 +3061,7 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:29" ht="13.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="21"/>
@@ -3048,7 +3092,7 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:29" ht="13.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="21"/>
@@ -3079,7 +3123,7 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:29" ht="13.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="21"/>
@@ -3110,7 +3154,7 @@
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:29" ht="13.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="21"/>
@@ -3141,7 +3185,7 @@
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:29" ht="13.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="21"/>
@@ -3172,7 +3216,7 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:29" ht="13.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="21"/>
@@ -3203,7 +3247,7 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:29" ht="13.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="21"/>
@@ -3234,7 +3278,7 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:29" ht="13.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="21"/>
@@ -3265,7 +3309,7 @@
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:29" ht="13.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="21"/>
@@ -3296,7 +3340,7 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:29" ht="13.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="21"/>
@@ -3327,7 +3371,7 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:29" ht="13.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="21"/>
@@ -3358,7 +3402,7 @@
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:29" ht="13.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="21"/>
@@ -3389,7 +3433,7 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:29" ht="13.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="21"/>
@@ -3420,7 +3464,7 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:29" ht="13.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="21"/>
@@ -3451,7 +3495,7 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:29" ht="13.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="21"/>
@@ -3482,7 +3526,7 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:29" ht="13.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="21"/>
@@ -3513,7 +3557,7 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:29" ht="13.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="21"/>
@@ -3544,7 +3588,7 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:29" ht="13.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="21"/>
@@ -3575,7 +3619,7 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:29" ht="13.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="21"/>
@@ -3606,7 +3650,7 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:29" ht="13.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="21"/>
@@ -3637,7 +3681,7 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:29" ht="13.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="21"/>
@@ -3668,7 +3712,7 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:29" ht="13.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="21"/>
@@ -3699,7 +3743,7 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:29" ht="13.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="21"/>
@@ -3730,7 +3774,7 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:29" ht="13.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="21"/>
@@ -3761,7 +3805,7 @@
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:29" ht="13.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="21"/>
@@ -3792,7 +3836,7 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:29" ht="13.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="21"/>
@@ -3823,7 +3867,7 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:29" ht="13.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="21"/>
@@ -3854,7 +3898,7 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:29" ht="13.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="21"/>
@@ -3885,7 +3929,7 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:29" ht="13.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="21"/>
@@ -3916,7 +3960,7 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:29" ht="13.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="21"/>
@@ -3947,7 +3991,7 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:29" ht="13.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="21"/>
@@ -3978,7 +4022,7 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:29" ht="13.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="21"/>
@@ -4009,7 +4053,7 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:29" ht="13.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="21"/>
@@ -4040,7 +4084,7 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:29" ht="13.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="21"/>
@@ -4071,7 +4115,7 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:29" ht="13.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="21"/>
@@ -4102,7 +4146,7 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:29" ht="13.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="21"/>
@@ -4133,7 +4177,7 @@
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:29" ht="13.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="21"/>
@@ -4164,7 +4208,7 @@
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:29" ht="13.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="21"/>
@@ -4195,7 +4239,7 @@
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:29" ht="13.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="21"/>
@@ -4226,7 +4270,7 @@
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:29" ht="13.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="21"/>
@@ -4257,7 +4301,7 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:29" ht="13.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="21"/>
@@ -4288,7 +4332,7 @@
       <c r="AB96" s="3"/>
       <c r="AC96" s="3"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:29" ht="13.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="21"/>
@@ -4319,7 +4363,7 @@
       <c r="AB97" s="3"/>
       <c r="AC97" s="3"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:29" ht="13.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="21"/>
@@ -4350,7 +4394,7 @@
       <c r="AB98" s="3"/>
       <c r="AC98" s="3"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:29" ht="13.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="21"/>
@@ -4381,7 +4425,7 @@
       <c r="AB99" s="3"/>
       <c r="AC99" s="3"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:29" ht="13.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="21"/>
@@ -4412,7 +4456,7 @@
       <c r="AB100" s="3"/>
       <c r="AC100" s="3"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:29" ht="13.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="21"/>
@@ -4443,7 +4487,7 @@
       <c r="AB101" s="3"/>
       <c r="AC101" s="3"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:29" ht="13.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="21"/>
@@ -4474,7 +4518,7 @@
       <c r="AB102" s="3"/>
       <c r="AC102" s="3"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:29" ht="13.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="21"/>
@@ -4505,7 +4549,7 @@
       <c r="AB103" s="3"/>
       <c r="AC103" s="3"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:29" ht="13.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="21"/>
@@ -4536,7 +4580,7 @@
       <c r="AB104" s="3"/>
       <c r="AC104" s="3"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:29" ht="13.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="21"/>
@@ -4567,7 +4611,7 @@
       <c r="AB105" s="3"/>
       <c r="AC105" s="3"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:29" ht="13.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="21"/>
@@ -4598,7 +4642,7 @@
       <c r="AB106" s="3"/>
       <c r="AC106" s="3"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:29" ht="13.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="21"/>
@@ -4629,7 +4673,7 @@
       <c r="AB107" s="3"/>
       <c r="AC107" s="3"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:29" ht="13.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="21"/>
@@ -4660,7 +4704,7 @@
       <c r="AB108" s="3"/>
       <c r="AC108" s="3"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:29" ht="13.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="21"/>
@@ -4691,7 +4735,7 @@
       <c r="AB109" s="3"/>
       <c r="AC109" s="3"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:29" ht="13.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="21"/>
@@ -4722,7 +4766,7 @@
       <c r="AB110" s="3"/>
       <c r="AC110" s="3"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:29" ht="13.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="21"/>
@@ -4753,7 +4797,7 @@
       <c r="AB111" s="3"/>
       <c r="AC111" s="3"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:29" ht="13.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="21"/>
@@ -4784,7 +4828,7 @@
       <c r="AB112" s="3"/>
       <c r="AC112" s="3"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:29" ht="13.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="21"/>
@@ -4815,7 +4859,7 @@
       <c r="AB113" s="3"/>
       <c r="AC113" s="3"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:29" ht="13.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="21"/>
@@ -4846,7 +4890,7 @@
       <c r="AB114" s="3"/>
       <c r="AC114" s="3"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:29" ht="13.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="21"/>
@@ -4877,7 +4921,7 @@
       <c r="AB115" s="3"/>
       <c r="AC115" s="3"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:29" ht="13.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="21"/>
@@ -4908,7 +4952,7 @@
       <c r="AB116" s="3"/>
       <c r="AC116" s="3"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:29" ht="13.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="21"/>
@@ -4939,7 +4983,7 @@
       <c r="AB117" s="3"/>
       <c r="AC117" s="3"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:29" ht="13.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="21"/>
@@ -4970,7 +5014,7 @@
       <c r="AB118" s="3"/>
       <c r="AC118" s="3"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:29" ht="13.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="21"/>
@@ -5001,7 +5045,7 @@
       <c r="AB119" s="3"/>
       <c r="AC119" s="3"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:29" ht="13.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="21"/>
@@ -5032,7 +5076,7 @@
       <c r="AB120" s="3"/>
       <c r="AC120" s="3"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:29" ht="13.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="21"/>
@@ -5063,7 +5107,7 @@
       <c r="AB121" s="3"/>
       <c r="AC121" s="3"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:29" ht="13.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="21"/>
@@ -5094,7 +5138,7 @@
       <c r="AB122" s="3"/>
       <c r="AC122" s="3"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:29" ht="13.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="21"/>
@@ -5125,7 +5169,7 @@
       <c r="AB123" s="3"/>
       <c r="AC123" s="3"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:29" ht="13.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="21"/>
@@ -5156,7 +5200,7 @@
       <c r="AB124" s="3"/>
       <c r="AC124" s="3"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:29" ht="13.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="21"/>
@@ -5187,7 +5231,7 @@
       <c r="AB125" s="3"/>
       <c r="AC125" s="3"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:29" ht="13.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="21"/>
@@ -5218,7 +5262,7 @@
       <c r="AB126" s="3"/>
       <c r="AC126" s="3"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:29" ht="13.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="21"/>
@@ -5249,7 +5293,7 @@
       <c r="AB127" s="3"/>
       <c r="AC127" s="3"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:29" ht="13.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="21"/>
@@ -5280,7 +5324,7 @@
       <c r="AB128" s="3"/>
       <c r="AC128" s="3"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:29" ht="13.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="21"/>
@@ -5311,7 +5355,7 @@
       <c r="AB129" s="3"/>
       <c r="AC129" s="3"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:29" ht="13.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="21"/>
@@ -5342,7 +5386,7 @@
       <c r="AB130" s="3"/>
       <c r="AC130" s="3"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:29" ht="13.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="21"/>
@@ -5373,7 +5417,7 @@
       <c r="AB131" s="3"/>
       <c r="AC131" s="3"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:29" ht="13.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="21"/>
@@ -5404,7 +5448,7 @@
       <c r="AB132" s="3"/>
       <c r="AC132" s="3"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:29" ht="13.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="21"/>
@@ -5435,7 +5479,7 @@
       <c r="AB133" s="3"/>
       <c r="AC133" s="3"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:29" ht="13.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="21"/>
@@ -5466,7 +5510,7 @@
       <c r="AB134" s="3"/>
       <c r="AC134" s="3"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:29" ht="13.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="21"/>
@@ -5497,7 +5541,7 @@
       <c r="AB135" s="3"/>
       <c r="AC135" s="3"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:29" ht="13.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="21"/>
@@ -5528,7 +5572,7 @@
       <c r="AB136" s="3"/>
       <c r="AC136" s="3"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:29" ht="13.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="21"/>
@@ -5559,7 +5603,7 @@
       <c r="AB137" s="3"/>
       <c r="AC137" s="3"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:29" ht="13.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="21"/>
@@ -5590,7 +5634,7 @@
       <c r="AB138" s="3"/>
       <c r="AC138" s="3"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:29" ht="13.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="21"/>
@@ -5621,7 +5665,7 @@
       <c r="AB139" s="3"/>
       <c r="AC139" s="3"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:29" ht="13.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="21"/>
@@ -5652,7 +5696,7 @@
       <c r="AB140" s="3"/>
       <c r="AC140" s="3"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:29" ht="13.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="21"/>
@@ -5683,7 +5727,7 @@
       <c r="AB141" s="3"/>
       <c r="AC141" s="3"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:29" ht="13.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="21"/>
@@ -5714,7 +5758,7 @@
       <c r="AB142" s="3"/>
       <c r="AC142" s="3"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:29" ht="13.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="21"/>
@@ -5745,7 +5789,7 @@
       <c r="AB143" s="3"/>
       <c r="AC143" s="3"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:29" ht="13.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="21"/>
@@ -5776,7 +5820,7 @@
       <c r="AB144" s="3"/>
       <c r="AC144" s="3"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:29" ht="13.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="21"/>
@@ -5807,7 +5851,7 @@
       <c r="AB145" s="3"/>
       <c r="AC145" s="3"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:29" ht="13.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="21"/>
@@ -5838,7 +5882,7 @@
       <c r="AB146" s="3"/>
       <c r="AC146" s="3"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:29" ht="13.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="21"/>
@@ -5869,7 +5913,7 @@
       <c r="AB147" s="3"/>
       <c r="AC147" s="3"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:29" ht="13.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="21"/>
@@ -5900,7 +5944,7 @@
       <c r="AB148" s="3"/>
       <c r="AC148" s="3"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:29" ht="13.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="21"/>
@@ -5931,7 +5975,7 @@
       <c r="AB149" s="3"/>
       <c r="AC149" s="3"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:29" ht="13.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="21"/>
@@ -5962,7 +6006,7 @@
       <c r="AB150" s="3"/>
       <c r="AC150" s="3"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:29" ht="13.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="21"/>
@@ -5993,7 +6037,7 @@
       <c r="AB151" s="3"/>
       <c r="AC151" s="3"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:29" ht="13.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="21"/>
@@ -6024,7 +6068,7 @@
       <c r="AB152" s="3"/>
       <c r="AC152" s="3"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:29" ht="13.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="21"/>
@@ -6055,7 +6099,7 @@
       <c r="AB153" s="3"/>
       <c r="AC153" s="3"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:29" ht="13.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="21"/>
@@ -6086,7 +6130,7 @@
       <c r="AB154" s="3"/>
       <c r="AC154" s="3"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:29" ht="13.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="21"/>
@@ -6117,7 +6161,7 @@
       <c r="AB155" s="3"/>
       <c r="AC155" s="3"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:29" ht="13.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="21"/>
@@ -6148,7 +6192,7 @@
       <c r="AB156" s="3"/>
       <c r="AC156" s="3"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:29" ht="13.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="21"/>
@@ -6179,7 +6223,7 @@
       <c r="AB157" s="3"/>
       <c r="AC157" s="3"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:29" ht="13.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="21"/>
@@ -6210,7 +6254,7 @@
       <c r="AB158" s="3"/>
       <c r="AC158" s="3"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:29" ht="13.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="21"/>
@@ -6241,7 +6285,7 @@
       <c r="AB159" s="3"/>
       <c r="AC159" s="3"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:29" ht="13.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="21"/>
@@ -6272,7 +6316,7 @@
       <c r="AB160" s="3"/>
       <c r="AC160" s="3"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:29" ht="13.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="21"/>
@@ -6303,7 +6347,7 @@
       <c r="AB161" s="3"/>
       <c r="AC161" s="3"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:29" ht="13.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="21"/>
@@ -6334,7 +6378,7 @@
       <c r="AB162" s="3"/>
       <c r="AC162" s="3"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:29" ht="13.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="21"/>
@@ -6365,7 +6409,7 @@
       <c r="AB163" s="3"/>
       <c r="AC163" s="3"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:29" ht="13.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="21"/>
@@ -6396,7 +6440,7 @@
       <c r="AB164" s="3"/>
       <c r="AC164" s="3"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:29" ht="13.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="21"/>
@@ -6427,7 +6471,7 @@
       <c r="AB165" s="3"/>
       <c r="AC165" s="3"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:29" ht="13.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="21"/>
@@ -6458,7 +6502,7 @@
       <c r="AB166" s="3"/>
       <c r="AC166" s="3"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:29" ht="13.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="21"/>
@@ -6489,7 +6533,7 @@
       <c r="AB167" s="3"/>
       <c r="AC167" s="3"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:29" ht="13.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="21"/>
@@ -6520,7 +6564,7 @@
       <c r="AB168" s="3"/>
       <c r="AC168" s="3"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:29" ht="13.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="21"/>
@@ -6551,7 +6595,7 @@
       <c r="AB169" s="3"/>
       <c r="AC169" s="3"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:29" ht="13.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="21"/>
@@ -6582,7 +6626,7 @@
       <c r="AB170" s="3"/>
       <c r="AC170" s="3"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:29" ht="13.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="21"/>
@@ -6613,7 +6657,7 @@
       <c r="AB171" s="3"/>
       <c r="AC171" s="3"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:29" ht="13.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="21"/>
@@ -6644,7 +6688,7 @@
       <c r="AB172" s="3"/>
       <c r="AC172" s="3"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:29" ht="13.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="21"/>
@@ -6675,7 +6719,7 @@
       <c r="AB173" s="3"/>
       <c r="AC173" s="3"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:29" ht="13.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="21"/>
@@ -6706,7 +6750,7 @@
       <c r="AB174" s="3"/>
       <c r="AC174" s="3"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:29" ht="13.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="21"/>
@@ -6737,7 +6781,7 @@
       <c r="AB175" s="3"/>
       <c r="AC175" s="3"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:29" ht="13.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="21"/>
@@ -6768,7 +6812,7 @@
       <c r="AB176" s="3"/>
       <c r="AC176" s="3"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:29" ht="13.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="21"/>
@@ -6799,7 +6843,7 @@
       <c r="AB177" s="3"/>
       <c r="AC177" s="3"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:29" ht="13.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="21"/>
@@ -6830,7 +6874,7 @@
       <c r="AB178" s="3"/>
       <c r="AC178" s="3"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:29" ht="13.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="21"/>
@@ -6861,7 +6905,7 @@
       <c r="AB179" s="3"/>
       <c r="AC179" s="3"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:29" ht="13.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="21"/>
@@ -6892,7 +6936,7 @@
       <c r="AB180" s="3"/>
       <c r="AC180" s="3"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:29" ht="13.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="21"/>
@@ -6923,7 +6967,7 @@
       <c r="AB181" s="3"/>
       <c r="AC181" s="3"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:29" ht="13.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="21"/>
@@ -6954,7 +6998,7 @@
       <c r="AB182" s="3"/>
       <c r="AC182" s="3"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:29" ht="13.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="21"/>
@@ -6985,7 +7029,7 @@
       <c r="AB183" s="3"/>
       <c r="AC183" s="3"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:29" ht="13.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="21"/>
@@ -7016,7 +7060,7 @@
       <c r="AB184" s="3"/>
       <c r="AC184" s="3"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:29" ht="13.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="21"/>
@@ -7047,7 +7091,7 @@
       <c r="AB185" s="3"/>
       <c r="AC185" s="3"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:29" ht="13.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="21"/>
@@ -7078,7 +7122,7 @@
       <c r="AB186" s="3"/>
       <c r="AC186" s="3"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:29" ht="13.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="21"/>
@@ -7109,7 +7153,7 @@
       <c r="AB187" s="3"/>
       <c r="AC187" s="3"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:29" ht="13.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="21"/>
@@ -7140,7 +7184,7 @@
       <c r="AB188" s="3"/>
       <c r="AC188" s="3"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:29" ht="13.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="21"/>
@@ -7171,7 +7215,7 @@
       <c r="AB189" s="3"/>
       <c r="AC189" s="3"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:29" ht="13.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="21"/>
@@ -7202,7 +7246,7 @@
       <c r="AB190" s="3"/>
       <c r="AC190" s="3"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:29" ht="13.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="21"/>
@@ -7233,7 +7277,7 @@
       <c r="AB191" s="3"/>
       <c r="AC191" s="3"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:29" ht="13.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="21"/>
@@ -7264,7 +7308,7 @@
       <c r="AB192" s="3"/>
       <c r="AC192" s="3"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:29" ht="13.2">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="21"/>
@@ -7295,7 +7339,7 @@
       <c r="AB193" s="3"/>
       <c r="AC193" s="3"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:29" ht="13.2">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="21"/>
@@ -7326,7 +7370,7 @@
       <c r="AB194" s="3"/>
       <c r="AC194" s="3"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:29" ht="13.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="21"/>
@@ -7357,7 +7401,7 @@
       <c r="AB195" s="3"/>
       <c r="AC195" s="3"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:29" ht="13.2">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="21"/>
@@ -7388,7 +7432,7 @@
       <c r="AB196" s="3"/>
       <c r="AC196" s="3"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:29" ht="13.2">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="21"/>
@@ -7419,7 +7463,7 @@
       <c r="AB197" s="3"/>
       <c r="AC197" s="3"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:29" ht="13.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="21"/>
@@ -7450,7 +7494,7 @@
       <c r="AB198" s="3"/>
       <c r="AC198" s="3"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:29" ht="13.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="21"/>
@@ -7481,7 +7525,7 @@
       <c r="AB199" s="3"/>
       <c r="AC199" s="3"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:29" ht="13.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="21"/>
@@ -7512,7 +7556,7 @@
       <c r="AB200" s="3"/>
       <c r="AC200" s="3"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:29" ht="13.2">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="21"/>
@@ -7543,7 +7587,7 @@
       <c r="AB201" s="3"/>
       <c r="AC201" s="3"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:29" ht="13.2">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="21"/>
@@ -7574,7 +7618,7 @@
       <c r="AB202" s="3"/>
       <c r="AC202" s="3"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:29" ht="13.2">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="21"/>
@@ -7605,7 +7649,7 @@
       <c r="AB203" s="3"/>
       <c r="AC203" s="3"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:29" ht="13.2">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="21"/>
@@ -7636,7 +7680,7 @@
       <c r="AB204" s="3"/>
       <c r="AC204" s="3"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:29" ht="13.2">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="21"/>
@@ -7667,7 +7711,7 @@
       <c r="AB205" s="3"/>
       <c r="AC205" s="3"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:29" ht="13.2">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="21"/>
@@ -7698,7 +7742,7 @@
       <c r="AB206" s="3"/>
       <c r="AC206" s="3"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:29" ht="13.2">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="21"/>
@@ -7729,7 +7773,7 @@
       <c r="AB207" s="3"/>
       <c r="AC207" s="3"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:29" ht="13.2">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="21"/>
@@ -7760,7 +7804,7 @@
       <c r="AB208" s="3"/>
       <c r="AC208" s="3"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:29" ht="13.2">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="21"/>
@@ -7791,7 +7835,7 @@
       <c r="AB209" s="3"/>
       <c r="AC209" s="3"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:29" ht="13.2">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="21"/>
@@ -7822,7 +7866,7 @@
       <c r="AB210" s="3"/>
       <c r="AC210" s="3"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:29" ht="13.2">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="21"/>
@@ -7853,7 +7897,7 @@
       <c r="AB211" s="3"/>
       <c r="AC211" s="3"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:29" ht="13.2">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="21"/>
@@ -7884,7 +7928,7 @@
       <c r="AB212" s="3"/>
       <c r="AC212" s="3"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:29" ht="13.2">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="21"/>
@@ -7915,7 +7959,7 @@
       <c r="AB213" s="3"/>
       <c r="AC213" s="3"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:29" ht="13.2">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="21"/>
@@ -7946,7 +7990,7 @@
       <c r="AB214" s="3"/>
       <c r="AC214" s="3"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:29" ht="13.2">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="21"/>
@@ -7977,7 +8021,7 @@
       <c r="AB215" s="3"/>
       <c r="AC215" s="3"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:29" ht="13.2">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="21"/>
@@ -8008,7 +8052,7 @@
       <c r="AB216" s="3"/>
       <c r="AC216" s="3"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:29" ht="13.2">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="21"/>
@@ -8039,7 +8083,7 @@
       <c r="AB217" s="3"/>
       <c r="AC217" s="3"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:29" ht="13.2">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="21"/>
@@ -8070,7 +8114,7 @@
       <c r="AB218" s="3"/>
       <c r="AC218" s="3"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:29" ht="13.2">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="21"/>
@@ -8101,7 +8145,7 @@
       <c r="AB219" s="3"/>
       <c r="AC219" s="3"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:29" ht="13.2">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="21"/>
@@ -8132,7 +8176,7 @@
       <c r="AB220" s="3"/>
       <c r="AC220" s="3"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:29" ht="13.2">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="21"/>
@@ -8163,7 +8207,7 @@
       <c r="AB221" s="3"/>
       <c r="AC221" s="3"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:29" ht="13.2">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="21"/>
@@ -8194,7 +8238,7 @@
       <c r="AB222" s="3"/>
       <c r="AC222" s="3"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:29" ht="13.2">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="21"/>
@@ -8225,7 +8269,7 @@
       <c r="AB223" s="3"/>
       <c r="AC223" s="3"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:29" ht="13.2">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="21"/>
@@ -8256,7 +8300,7 @@
       <c r="AB224" s="3"/>
       <c r="AC224" s="3"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:29" ht="13.2">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="21"/>
@@ -8287,7 +8331,7 @@
       <c r="AB225" s="3"/>
       <c r="AC225" s="3"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:29" ht="13.2">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="21"/>
@@ -8318,7 +8362,7 @@
       <c r="AB226" s="3"/>
       <c r="AC226" s="3"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:29" ht="13.2">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="21"/>
@@ -8349,7 +8393,7 @@
       <c r="AB227" s="3"/>
       <c r="AC227" s="3"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:29" ht="13.2">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="21"/>
@@ -8380,7 +8424,7 @@
       <c r="AB228" s="3"/>
       <c r="AC228" s="3"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:29" ht="13.2">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="21"/>
@@ -8411,7 +8455,7 @@
       <c r="AB229" s="3"/>
       <c r="AC229" s="3"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:29" ht="13.2">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="21"/>
@@ -8442,7 +8486,7 @@
       <c r="AB230" s="3"/>
       <c r="AC230" s="3"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:29" ht="13.2">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="21"/>
@@ -8473,7 +8517,7 @@
       <c r="AB231" s="3"/>
       <c r="AC231" s="3"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:29" ht="13.2">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="21"/>
@@ -8504,7 +8548,7 @@
       <c r="AB232" s="3"/>
       <c r="AC232" s="3"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:29" ht="13.2">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="21"/>
@@ -8535,7 +8579,7 @@
       <c r="AB233" s="3"/>
       <c r="AC233" s="3"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:29" ht="13.2">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="21"/>
@@ -8566,7 +8610,7 @@
       <c r="AB234" s="3"/>
       <c r="AC234" s="3"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:29" ht="13.2">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="21"/>
@@ -8597,7 +8641,7 @@
       <c r="AB235" s="3"/>
       <c r="AC235" s="3"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:29" ht="13.2">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="21"/>
@@ -8628,7 +8672,7 @@
       <c r="AB236" s="3"/>
       <c r="AC236" s="3"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:29" ht="13.2">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="21"/>
@@ -8659,7 +8703,7 @@
       <c r="AB237" s="3"/>
       <c r="AC237" s="3"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:29" ht="13.2">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="21"/>
@@ -8690,7 +8734,7 @@
       <c r="AB238" s="3"/>
       <c r="AC238" s="3"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:29" ht="13.2">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="21"/>
@@ -8721,7 +8765,7 @@
       <c r="AB239" s="3"/>
       <c r="AC239" s="3"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:29" ht="13.2">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="21"/>
@@ -8752,7 +8796,7 @@
       <c r="AB240" s="3"/>
       <c r="AC240" s="3"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:29" ht="13.2">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="21"/>
@@ -8783,7 +8827,7 @@
       <c r="AB241" s="3"/>
       <c r="AC241" s="3"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:29" ht="13.2">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="21"/>
@@ -8814,7 +8858,7 @@
       <c r="AB242" s="3"/>
       <c r="AC242" s="3"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:29" ht="13.2">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="21"/>
@@ -8845,7 +8889,7 @@
       <c r="AB243" s="3"/>
       <c r="AC243" s="3"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:29" ht="13.2">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="21"/>
@@ -8876,7 +8920,7 @@
       <c r="AB244" s="3"/>
       <c r="AC244" s="3"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:29" ht="13.2">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="21"/>
@@ -8907,7 +8951,7 @@
       <c r="AB245" s="3"/>
       <c r="AC245" s="3"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:29" ht="13.2">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="21"/>
@@ -8938,7 +8982,7 @@
       <c r="AB246" s="3"/>
       <c r="AC246" s="3"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:29" ht="13.2">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="21"/>
@@ -8969,7 +9013,7 @@
       <c r="AB247" s="3"/>
       <c r="AC247" s="3"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:29" ht="13.2">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="21"/>
@@ -9000,7 +9044,7 @@
       <c r="AB248" s="3"/>
       <c r="AC248" s="3"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:29" ht="13.2">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="21"/>
@@ -9031,7 +9075,7 @@
       <c r="AB249" s="3"/>
       <c r="AC249" s="3"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:29" ht="13.2">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="21"/>
@@ -9062,7 +9106,7 @@
       <c r="AB250" s="3"/>
       <c r="AC250" s="3"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:29" ht="13.2">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="21"/>
@@ -9093,7 +9137,7 @@
       <c r="AB251" s="3"/>
       <c r="AC251" s="3"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:29" ht="13.2">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="21"/>
@@ -9124,7 +9168,7 @@
       <c r="AB252" s="3"/>
       <c r="AC252" s="3"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:29" ht="13.2">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="21"/>
@@ -9155,7 +9199,7 @@
       <c r="AB253" s="3"/>
       <c r="AC253" s="3"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:29" ht="13.2">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="21"/>
@@ -9186,7 +9230,7 @@
       <c r="AB254" s="3"/>
       <c r="AC254" s="3"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:29" ht="13.2">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="21"/>
@@ -9217,7 +9261,7 @@
       <c r="AB255" s="3"/>
       <c r="AC255" s="3"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:29" ht="13.2">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="21"/>
@@ -9248,7 +9292,7 @@
       <c r="AB256" s="3"/>
       <c r="AC256" s="3"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:29" ht="13.2">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="21"/>
@@ -9279,7 +9323,7 @@
       <c r="AB257" s="3"/>
       <c r="AC257" s="3"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:29" ht="13.2">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="21"/>
@@ -9310,7 +9354,7 @@
       <c r="AB258" s="3"/>
       <c r="AC258" s="3"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:29" ht="13.2">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="21"/>
@@ -9341,7 +9385,7 @@
       <c r="AB259" s="3"/>
       <c r="AC259" s="3"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:29" ht="13.2">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="21"/>
@@ -9372,7 +9416,7 @@
       <c r="AB260" s="3"/>
       <c r="AC260" s="3"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:29" ht="13.2">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="21"/>
@@ -9403,7 +9447,7 @@
       <c r="AB261" s="3"/>
       <c r="AC261" s="3"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:29" ht="13.2">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="21"/>
@@ -9434,7 +9478,7 @@
       <c r="AB262" s="3"/>
       <c r="AC262" s="3"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:29" ht="13.2">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="21"/>
@@ -9465,7 +9509,7 @@
       <c r="AB263" s="3"/>
       <c r="AC263" s="3"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:29" ht="13.2">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="21"/>
@@ -9496,7 +9540,7 @@
       <c r="AB264" s="3"/>
       <c r="AC264" s="3"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:29" ht="13.2">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="21"/>
@@ -9527,7 +9571,7 @@
       <c r="AB265" s="3"/>
       <c r="AC265" s="3"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:29" ht="13.2">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="21"/>
@@ -9558,7 +9602,7 @@
       <c r="AB266" s="3"/>
       <c r="AC266" s="3"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:29" ht="13.2">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="21"/>
@@ -9589,7 +9633,7 @@
       <c r="AB267" s="3"/>
       <c r="AC267" s="3"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:29" ht="13.2">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="21"/>
@@ -9620,7 +9664,7 @@
       <c r="AB268" s="3"/>
       <c r="AC268" s="3"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:29" ht="13.2">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="21"/>
@@ -9651,7 +9695,7 @@
       <c r="AB269" s="3"/>
       <c r="AC269" s="3"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:29" ht="13.2">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="21"/>
@@ -9682,7 +9726,7 @@
       <c r="AB270" s="3"/>
       <c r="AC270" s="3"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:29" ht="13.2">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="21"/>
@@ -9713,7 +9757,7 @@
       <c r="AB271" s="3"/>
       <c r="AC271" s="3"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:29" ht="13.2">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="21"/>
@@ -9744,7 +9788,7 @@
       <c r="AB272" s="3"/>
       <c r="AC272" s="3"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:29" ht="13.2">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="21"/>
@@ -9775,7 +9819,7 @@
       <c r="AB273" s="3"/>
       <c r="AC273" s="3"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:29" ht="13.2">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="21"/>
@@ -9806,7 +9850,7 @@
       <c r="AB274" s="3"/>
       <c r="AC274" s="3"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:29" ht="13.2">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="21"/>
@@ -9837,7 +9881,7 @@
       <c r="AB275" s="3"/>
       <c r="AC275" s="3"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:29" ht="13.2">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="21"/>
@@ -9868,7 +9912,7 @@
       <c r="AB276" s="3"/>
       <c r="AC276" s="3"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:29" ht="13.2">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="21"/>
@@ -9899,7 +9943,7 @@
       <c r="AB277" s="3"/>
       <c r="AC277" s="3"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:29" ht="13.2">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="21"/>
@@ -9930,7 +9974,7 @@
       <c r="AB278" s="3"/>
       <c r="AC278" s="3"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:29" ht="13.2">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="21"/>
@@ -9961,7 +10005,7 @@
       <c r="AB279" s="3"/>
       <c r="AC279" s="3"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:29" ht="13.2">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="21"/>
@@ -9992,7 +10036,7 @@
       <c r="AB280" s="3"/>
       <c r="AC280" s="3"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:29" ht="13.2">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="21"/>
@@ -10023,7 +10067,7 @@
       <c r="AB281" s="3"/>
       <c r="AC281" s="3"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:29" ht="13.2">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="21"/>
@@ -10054,7 +10098,7 @@
       <c r="AB282" s="3"/>
       <c r="AC282" s="3"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:29" ht="13.2">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="21"/>
@@ -10085,7 +10129,7 @@
       <c r="AB283" s="3"/>
       <c r="AC283" s="3"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:29" ht="13.2">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="21"/>
@@ -10116,7 +10160,7 @@
       <c r="AB284" s="3"/>
       <c r="AC284" s="3"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:29" ht="13.2">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="21"/>
@@ -10147,7 +10191,7 @@
       <c r="AB285" s="3"/>
       <c r="AC285" s="3"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:29" ht="13.2">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="21"/>
@@ -10178,7 +10222,7 @@
       <c r="AB286" s="3"/>
       <c r="AC286" s="3"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:29" ht="13.2">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="21"/>
@@ -10209,7 +10253,7 @@
       <c r="AB287" s="3"/>
       <c r="AC287" s="3"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:29" ht="13.2">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="21"/>
@@ -10240,7 +10284,7 @@
       <c r="AB288" s="3"/>
       <c r="AC288" s="3"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:29" ht="13.2">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="21"/>
@@ -10271,7 +10315,7 @@
       <c r="AB289" s="3"/>
       <c r="AC289" s="3"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:29" ht="13.2">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="21"/>
@@ -10302,7 +10346,7 @@
       <c r="AB290" s="3"/>
       <c r="AC290" s="3"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:29" ht="13.2">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="21"/>
@@ -10333,7 +10377,7 @@
       <c r="AB291" s="3"/>
       <c r="AC291" s="3"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:29" ht="13.2">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="21"/>
@@ -10364,7 +10408,7 @@
       <c r="AB292" s="3"/>
       <c r="AC292" s="3"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:29" ht="13.2">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="21"/>
@@ -10395,7 +10439,7 @@
       <c r="AB293" s="3"/>
       <c r="AC293" s="3"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:29" ht="13.2">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="21"/>
@@ -10426,7 +10470,7 @@
       <c r="AB294" s="3"/>
       <c r="AC294" s="3"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:29" ht="13.2">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="21"/>
@@ -10457,7 +10501,7 @@
       <c r="AB295" s="3"/>
       <c r="AC295" s="3"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:29" ht="13.2">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="21"/>
@@ -10488,7 +10532,7 @@
       <c r="AB296" s="3"/>
       <c r="AC296" s="3"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:29" ht="13.2">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="21"/>
@@ -10519,7 +10563,7 @@
       <c r="AB297" s="3"/>
       <c r="AC297" s="3"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:29" ht="13.2">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="21"/>
@@ -10550,7 +10594,7 @@
       <c r="AB298" s="3"/>
       <c r="AC298" s="3"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:29" ht="13.2">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="21"/>
@@ -10581,7 +10625,7 @@
       <c r="AB299" s="3"/>
       <c r="AC299" s="3"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:29" ht="13.2">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="21"/>
@@ -10612,7 +10656,7 @@
       <c r="AB300" s="3"/>
       <c r="AC300" s="3"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:29" ht="13.2">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="21"/>
@@ -10643,7 +10687,7 @@
       <c r="AB301" s="3"/>
       <c r="AC301" s="3"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:29" ht="13.2">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="21"/>
@@ -10674,7 +10718,7 @@
       <c r="AB302" s="3"/>
       <c r="AC302" s="3"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:29" ht="13.2">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="21"/>
@@ -10705,7 +10749,7 @@
       <c r="AB303" s="3"/>
       <c r="AC303" s="3"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:29" ht="13.2">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="21"/>
@@ -10736,7 +10780,7 @@
       <c r="AB304" s="3"/>
       <c r="AC304" s="3"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:29" ht="13.2">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="21"/>
@@ -10767,7 +10811,7 @@
       <c r="AB305" s="3"/>
       <c r="AC305" s="3"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:29" ht="13.2">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="21"/>
@@ -10798,7 +10842,7 @@
       <c r="AB306" s="3"/>
       <c r="AC306" s="3"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:29" ht="13.2">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="21"/>
@@ -10829,7 +10873,7 @@
       <c r="AB307" s="3"/>
       <c r="AC307" s="3"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:29" ht="13.2">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="21"/>
@@ -10860,7 +10904,7 @@
       <c r="AB308" s="3"/>
       <c r="AC308" s="3"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:29" ht="13.2">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="21"/>
@@ -10891,7 +10935,7 @@
       <c r="AB309" s="3"/>
       <c r="AC309" s="3"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:29" ht="13.2">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="21"/>
@@ -10922,7 +10966,7 @@
       <c r="AB310" s="3"/>
       <c r="AC310" s="3"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:29" ht="13.2">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="21"/>
@@ -10953,7 +10997,7 @@
       <c r="AB311" s="3"/>
       <c r="AC311" s="3"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:29" ht="13.2">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="21"/>
@@ -10984,7 +11028,7 @@
       <c r="AB312" s="3"/>
       <c r="AC312" s="3"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:29" ht="13.2">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="21"/>
@@ -11015,7 +11059,7 @@
       <c r="AB313" s="3"/>
       <c r="AC313" s="3"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:29" ht="13.2">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="21"/>
@@ -11046,7 +11090,7 @@
       <c r="AB314" s="3"/>
       <c r="AC314" s="3"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:29" ht="13.2">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="21"/>
@@ -11077,7 +11121,7 @@
       <c r="AB315" s="3"/>
       <c r="AC315" s="3"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:29" ht="13.2">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="21"/>
@@ -11108,7 +11152,7 @@
       <c r="AB316" s="3"/>
       <c r="AC316" s="3"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:29" ht="13.2">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="21"/>
@@ -11139,7 +11183,7 @@
       <c r="AB317" s="3"/>
       <c r="AC317" s="3"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:29" ht="13.2">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="21"/>
@@ -11170,7 +11214,7 @@
       <c r="AB318" s="3"/>
       <c r="AC318" s="3"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:29" ht="13.2">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="21"/>
@@ -11201,7 +11245,7 @@
       <c r="AB319" s="3"/>
       <c r="AC319" s="3"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:29" ht="13.2">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="21"/>
@@ -11232,7 +11276,7 @@
       <c r="AB320" s="3"/>
       <c r="AC320" s="3"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:29" ht="13.2">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="21"/>
@@ -11263,7 +11307,7 @@
       <c r="AB321" s="3"/>
       <c r="AC321" s="3"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:29" ht="13.2">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="21"/>
@@ -11294,7 +11338,7 @@
       <c r="AB322" s="3"/>
       <c r="AC322" s="3"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:29" ht="13.2">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="21"/>
@@ -11325,7 +11369,7 @@
       <c r="AB323" s="3"/>
       <c r="AC323" s="3"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:29" ht="13.2">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="21"/>
@@ -11356,7 +11400,7 @@
       <c r="AB324" s="3"/>
       <c r="AC324" s="3"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:29" ht="13.2">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="21"/>
@@ -11387,7 +11431,7 @@
       <c r="AB325" s="3"/>
       <c r="AC325" s="3"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:29" ht="13.2">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="21"/>
@@ -11418,7 +11462,7 @@
       <c r="AB326" s="3"/>
       <c r="AC326" s="3"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:29" ht="13.2">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="21"/>
@@ -11449,7 +11493,7 @@
       <c r="AB327" s="3"/>
       <c r="AC327" s="3"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:29" ht="13.2">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="21"/>
@@ -11480,7 +11524,7 @@
       <c r="AB328" s="3"/>
       <c r="AC328" s="3"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:29" ht="13.2">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="21"/>
@@ -11511,7 +11555,7 @@
       <c r="AB329" s="3"/>
       <c r="AC329" s="3"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:29" ht="13.2">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="21"/>
@@ -11542,7 +11586,7 @@
       <c r="AB330" s="3"/>
       <c r="AC330" s="3"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:29" ht="13.2">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="21"/>
@@ -11573,7 +11617,7 @@
       <c r="AB331" s="3"/>
       <c r="AC331" s="3"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:29" ht="13.2">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="21"/>
@@ -11604,7 +11648,7 @@
       <c r="AB332" s="3"/>
       <c r="AC332" s="3"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:29" ht="13.2">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="21"/>
@@ -11635,7 +11679,7 @@
       <c r="AB333" s="3"/>
       <c r="AC333" s="3"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:29" ht="13.2">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="21"/>
@@ -11666,7 +11710,7 @@
       <c r="AB334" s="3"/>
       <c r="AC334" s="3"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:29" ht="13.2">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="21"/>
@@ -11697,7 +11741,7 @@
       <c r="AB335" s="3"/>
       <c r="AC335" s="3"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:29" ht="13.2">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="21"/>
@@ -11728,7 +11772,7 @@
       <c r="AB336" s="3"/>
       <c r="AC336" s="3"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:29" ht="13.2">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="21"/>
@@ -11759,7 +11803,7 @@
       <c r="AB337" s="3"/>
       <c r="AC337" s="3"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:29" ht="13.2">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="21"/>
@@ -11790,7 +11834,7 @@
       <c r="AB338" s="3"/>
       <c r="AC338" s="3"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:29" ht="13.2">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="21"/>
@@ -11821,7 +11865,7 @@
       <c r="AB339" s="3"/>
       <c r="AC339" s="3"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:29" ht="13.2">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="21"/>
@@ -11852,7 +11896,7 @@
       <c r="AB340" s="3"/>
       <c r="AC340" s="3"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:29" ht="13.2">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="21"/>
@@ -11883,7 +11927,7 @@
       <c r="AB341" s="3"/>
       <c r="AC341" s="3"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:29" ht="13.2">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="21"/>
@@ -11914,7 +11958,7 @@
       <c r="AB342" s="3"/>
       <c r="AC342" s="3"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:29" ht="13.2">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="21"/>
@@ -11945,7 +11989,7 @@
       <c r="AB343" s="3"/>
       <c r="AC343" s="3"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:29" ht="13.2">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="21"/>
@@ -11976,7 +12020,7 @@
       <c r="AB344" s="3"/>
       <c r="AC344" s="3"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:29" ht="13.2">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="21"/>
@@ -12007,7 +12051,7 @@
       <c r="AB345" s="3"/>
       <c r="AC345" s="3"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:29" ht="13.2">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="21"/>
@@ -12038,7 +12082,7 @@
       <c r="AB346" s="3"/>
       <c r="AC346" s="3"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:29" ht="13.2">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="21"/>
@@ -12069,7 +12113,7 @@
       <c r="AB347" s="3"/>
       <c r="AC347" s="3"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:29" ht="13.2">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="21"/>
@@ -12100,7 +12144,7 @@
       <c r="AB348" s="3"/>
       <c r="AC348" s="3"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:29" ht="13.2">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="21"/>
@@ -12131,7 +12175,7 @@
       <c r="AB349" s="3"/>
       <c r="AC349" s="3"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:29" ht="13.2">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="21"/>
@@ -12162,7 +12206,7 @@
       <c r="AB350" s="3"/>
       <c r="AC350" s="3"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:29" ht="13.2">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="21"/>
@@ -12193,7 +12237,7 @@
       <c r="AB351" s="3"/>
       <c r="AC351" s="3"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:29" ht="13.2">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="21"/>
@@ -12224,7 +12268,7 @@
       <c r="AB352" s="3"/>
       <c r="AC352" s="3"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:29" ht="13.2">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="21"/>
@@ -12255,7 +12299,7 @@
       <c r="AB353" s="3"/>
       <c r="AC353" s="3"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:29" ht="13.2">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="21"/>
@@ -12286,7 +12330,7 @@
       <c r="AB354" s="3"/>
       <c r="AC354" s="3"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:29" ht="13.2">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="21"/>
@@ -12317,7 +12361,7 @@
       <c r="AB355" s="3"/>
       <c r="AC355" s="3"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:29" ht="13.2">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="21"/>
@@ -12348,7 +12392,7 @@
       <c r="AB356" s="3"/>
       <c r="AC356" s="3"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:29" ht="13.2">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="21"/>
@@ -12379,7 +12423,7 @@
       <c r="AB357" s="3"/>
       <c r="AC357" s="3"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:29" ht="13.2">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="21"/>
@@ -12410,7 +12454,7 @@
       <c r="AB358" s="3"/>
       <c r="AC358" s="3"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:29" ht="13.2">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="21"/>
@@ -12441,7 +12485,7 @@
       <c r="AB359" s="3"/>
       <c r="AC359" s="3"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:29" ht="13.2">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="21"/>
@@ -12472,7 +12516,7 @@
       <c r="AB360" s="3"/>
       <c r="AC360" s="3"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:29" ht="13.2">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="21"/>
@@ -12503,7 +12547,7 @@
       <c r="AB361" s="3"/>
       <c r="AC361" s="3"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:29" ht="13.2">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="21"/>
@@ -12534,7 +12578,7 @@
       <c r="AB362" s="3"/>
       <c r="AC362" s="3"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:29" ht="13.2">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="21"/>
@@ -12565,7 +12609,7 @@
       <c r="AB363" s="3"/>
       <c r="AC363" s="3"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:29" ht="13.2">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="21"/>
@@ -12596,7 +12640,7 @@
       <c r="AB364" s="3"/>
       <c r="AC364" s="3"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:29" ht="13.2">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="21"/>
@@ -12627,7 +12671,7 @@
       <c r="AB365" s="3"/>
       <c r="AC365" s="3"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:29" ht="13.2">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="21"/>
@@ -12658,7 +12702,7 @@
       <c r="AB366" s="3"/>
       <c r="AC366" s="3"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:29" ht="13.2">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="21"/>
@@ -12689,7 +12733,7 @@
       <c r="AB367" s="3"/>
       <c r="AC367" s="3"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:29" ht="13.2">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="21"/>
@@ -12720,7 +12764,7 @@
       <c r="AB368" s="3"/>
       <c r="AC368" s="3"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:29" ht="13.2">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="21"/>
@@ -12751,7 +12795,7 @@
       <c r="AB369" s="3"/>
       <c r="AC369" s="3"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:29" ht="13.2">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="21"/>
@@ -12782,7 +12826,7 @@
       <c r="AB370" s="3"/>
       <c r="AC370" s="3"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:29" ht="13.2">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="21"/>
@@ -12813,7 +12857,7 @@
       <c r="AB371" s="3"/>
       <c r="AC371" s="3"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:29" ht="13.2">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="21"/>
@@ -12844,7 +12888,7 @@
       <c r="AB372" s="3"/>
       <c r="AC372" s="3"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:29" ht="13.2">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="21"/>
@@ -12875,7 +12919,7 @@
       <c r="AB373" s="3"/>
       <c r="AC373" s="3"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:29" ht="13.2">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="21"/>
@@ -12906,7 +12950,7 @@
       <c r="AB374" s="3"/>
       <c r="AC374" s="3"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:29" ht="13.2">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="21"/>
@@ -12937,7 +12981,7 @@
       <c r="AB375" s="3"/>
       <c r="AC375" s="3"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:29" ht="13.2">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="21"/>
@@ -12968,7 +13012,7 @@
       <c r="AB376" s="3"/>
       <c r="AC376" s="3"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:29" ht="13.2">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="21"/>
@@ -12999,7 +13043,7 @@
       <c r="AB377" s="3"/>
       <c r="AC377" s="3"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:29" ht="13.2">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="21"/>
@@ -13030,7 +13074,7 @@
       <c r="AB378" s="3"/>
       <c r="AC378" s="3"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:29" ht="13.2">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="21"/>
@@ -13061,7 +13105,7 @@
       <c r="AB379" s="3"/>
       <c r="AC379" s="3"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:29" ht="13.2">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="21"/>
@@ -13092,7 +13136,7 @@
       <c r="AB380" s="3"/>
       <c r="AC380" s="3"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:29" ht="13.2">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="21"/>
@@ -13123,7 +13167,7 @@
       <c r="AB381" s="3"/>
       <c r="AC381" s="3"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:29" ht="13.2">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="21"/>
@@ -13154,7 +13198,7 @@
       <c r="AB382" s="3"/>
       <c r="AC382" s="3"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:29" ht="13.2">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="21"/>
@@ -13185,7 +13229,7 @@
       <c r="AB383" s="3"/>
       <c r="AC383" s="3"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:29" ht="13.2">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="21"/>
@@ -13216,7 +13260,7 @@
       <c r="AB384" s="3"/>
       <c r="AC384" s="3"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:29" ht="13.2">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="21"/>
@@ -13247,7 +13291,7 @@
       <c r="AB385" s="3"/>
       <c r="AC385" s="3"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:29" ht="13.2">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="21"/>
@@ -13278,7 +13322,7 @@
       <c r="AB386" s="3"/>
       <c r="AC386" s="3"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:29" ht="13.2">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="21"/>
@@ -13309,7 +13353,7 @@
       <c r="AB387" s="3"/>
       <c r="AC387" s="3"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:29" ht="13.2">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="21"/>
@@ -13340,7 +13384,7 @@
       <c r="AB388" s="3"/>
       <c r="AC388" s="3"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:29" ht="13.2">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="21"/>
@@ -13371,7 +13415,7 @@
       <c r="AB389" s="3"/>
       <c r="AC389" s="3"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:29" ht="13.2">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="21"/>
@@ -13402,7 +13446,7 @@
       <c r="AB390" s="3"/>
       <c r="AC390" s="3"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:29" ht="13.2">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="21"/>
@@ -13433,7 +13477,7 @@
       <c r="AB391" s="3"/>
       <c r="AC391" s="3"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:29" ht="13.2">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="21"/>
@@ -13464,7 +13508,7 @@
       <c r="AB392" s="3"/>
       <c r="AC392" s="3"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:29" ht="13.2">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="21"/>
@@ -13495,7 +13539,7 @@
       <c r="AB393" s="3"/>
       <c r="AC393" s="3"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:29" ht="13.2">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="21"/>
@@ -13526,7 +13570,7 @@
       <c r="AB394" s="3"/>
       <c r="AC394" s="3"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:29" ht="13.2">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="21"/>
@@ -13557,7 +13601,7 @@
       <c r="AB395" s="3"/>
       <c r="AC395" s="3"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:29" ht="13.2">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="21"/>
@@ -13588,7 +13632,7 @@
       <c r="AB396" s="3"/>
       <c r="AC396" s="3"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:29" ht="13.2">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="21"/>
@@ -13619,7 +13663,7 @@
       <c r="AB397" s="3"/>
       <c r="AC397" s="3"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:29" ht="13.2">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="21"/>
@@ -13650,7 +13694,7 @@
       <c r="AB398" s="3"/>
       <c r="AC398" s="3"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:29" ht="13.2">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="21"/>
@@ -13681,7 +13725,7 @@
       <c r="AB399" s="3"/>
       <c r="AC399" s="3"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:29" ht="13.2">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="21"/>
@@ -13712,7 +13756,7 @@
       <c r="AB400" s="3"/>
       <c r="AC400" s="3"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:29" ht="13.2">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="21"/>
@@ -13743,7 +13787,7 @@
       <c r="AB401" s="3"/>
       <c r="AC401" s="3"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:29" ht="13.2">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="21"/>
@@ -13774,7 +13818,7 @@
       <c r="AB402" s="3"/>
       <c r="AC402" s="3"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:29" ht="13.2">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="21"/>
@@ -13805,7 +13849,7 @@
       <c r="AB403" s="3"/>
       <c r="AC403" s="3"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:29" ht="13.2">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="21"/>
@@ -13836,7 +13880,7 @@
       <c r="AB404" s="3"/>
       <c r="AC404" s="3"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:29" ht="13.2">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="21"/>
@@ -13867,7 +13911,7 @@
       <c r="AB405" s="3"/>
       <c r="AC405" s="3"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:29" ht="13.2">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="21"/>
@@ -13898,7 +13942,7 @@
       <c r="AB406" s="3"/>
       <c r="AC406" s="3"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:29" ht="13.2">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="21"/>
@@ -13929,7 +13973,7 @@
       <c r="AB407" s="3"/>
       <c r="AC407" s="3"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:29" ht="13.2">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="21"/>
@@ -13960,7 +14004,7 @@
       <c r="AB408" s="3"/>
       <c r="AC408" s="3"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:29" ht="13.2">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="21"/>
@@ -13991,7 +14035,7 @@
       <c r="AB409" s="3"/>
       <c r="AC409" s="3"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:29" ht="13.2">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="21"/>
@@ -14022,7 +14066,7 @@
       <c r="AB410" s="3"/>
       <c r="AC410" s="3"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:29" ht="13.2">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="21"/>
@@ -14053,7 +14097,7 @@
       <c r="AB411" s="3"/>
       <c r="AC411" s="3"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:29" ht="13.2">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="21"/>
@@ -14084,7 +14128,7 @@
       <c r="AB412" s="3"/>
       <c r="AC412" s="3"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:29" ht="13.2">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="21"/>
@@ -14115,7 +14159,7 @@
       <c r="AB413" s="3"/>
       <c r="AC413" s="3"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:29" ht="13.2">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="21"/>
@@ -14146,7 +14190,7 @@
       <c r="AB414" s="3"/>
       <c r="AC414" s="3"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:29" ht="13.2">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="21"/>
@@ -14177,7 +14221,7 @@
       <c r="AB415" s="3"/>
       <c r="AC415" s="3"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:29" ht="13.2">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="21"/>
@@ -14208,7 +14252,7 @@
       <c r="AB416" s="3"/>
       <c r="AC416" s="3"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:29" ht="13.2">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="21"/>
@@ -14239,7 +14283,7 @@
       <c r="AB417" s="3"/>
       <c r="AC417" s="3"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:29" ht="13.2">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="21"/>
@@ -14270,7 +14314,7 @@
       <c r="AB418" s="3"/>
       <c r="AC418" s="3"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:29" ht="13.2">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="21"/>
@@ -14301,7 +14345,7 @@
       <c r="AB419" s="3"/>
       <c r="AC419" s="3"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:29" ht="13.2">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="21"/>
@@ -14332,7 +14376,7 @@
       <c r="AB420" s="3"/>
       <c r="AC420" s="3"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:29" ht="13.2">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="21"/>
@@ -14363,7 +14407,7 @@
       <c r="AB421" s="3"/>
       <c r="AC421" s="3"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:29" ht="13.2">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="21"/>
@@ -14394,7 +14438,7 @@
       <c r="AB422" s="3"/>
       <c r="AC422" s="3"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:29" ht="13.2">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="21"/>
@@ -14425,7 +14469,7 @@
       <c r="AB423" s="3"/>
       <c r="AC423" s="3"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:29" ht="13.2">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="21"/>
@@ -14456,7 +14500,7 @@
       <c r="AB424" s="3"/>
       <c r="AC424" s="3"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:29" ht="13.2">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="21"/>
@@ -14487,7 +14531,7 @@
       <c r="AB425" s="3"/>
       <c r="AC425" s="3"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:29" ht="13.2">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="21"/>
@@ -14518,7 +14562,7 @@
       <c r="AB426" s="3"/>
       <c r="AC426" s="3"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:29" ht="13.2">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="21"/>
@@ -14549,7 +14593,7 @@
       <c r="AB427" s="3"/>
       <c r="AC427" s="3"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:29" ht="13.2">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="21"/>
@@ -14580,7 +14624,7 @@
       <c r="AB428" s="3"/>
       <c r="AC428" s="3"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:29" ht="13.2">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="21"/>
@@ -14611,7 +14655,7 @@
       <c r="AB429" s="3"/>
       <c r="AC429" s="3"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:29" ht="13.2">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="21"/>
@@ -14642,7 +14686,7 @@
       <c r="AB430" s="3"/>
       <c r="AC430" s="3"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:29" ht="13.2">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="21"/>
@@ -14673,7 +14717,7 @@
       <c r="AB431" s="3"/>
       <c r="AC431" s="3"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:29" ht="13.2">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="21"/>
@@ -14704,7 +14748,7 @@
       <c r="AB432" s="3"/>
       <c r="AC432" s="3"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:29" ht="13.2">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="21"/>
@@ -14735,7 +14779,7 @@
       <c r="AB433" s="3"/>
       <c r="AC433" s="3"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:29" ht="13.2">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="21"/>
@@ -14766,7 +14810,7 @@
       <c r="AB434" s="3"/>
       <c r="AC434" s="3"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:29" ht="13.2">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="21"/>
@@ -14797,7 +14841,7 @@
       <c r="AB435" s="3"/>
       <c r="AC435" s="3"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:29" ht="13.2">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="21"/>
@@ -14828,7 +14872,7 @@
       <c r="AB436" s="3"/>
       <c r="AC436" s="3"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:29" ht="13.2">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="21"/>
@@ -14859,7 +14903,7 @@
       <c r="AB437" s="3"/>
       <c r="AC437" s="3"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:29" ht="13.2">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="21"/>
@@ -14890,7 +14934,7 @@
       <c r="AB438" s="3"/>
       <c r="AC438" s="3"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:29" ht="13.2">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="21"/>
@@ -14921,7 +14965,7 @@
       <c r="AB439" s="3"/>
       <c r="AC439" s="3"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:29" ht="13.2">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="21"/>
@@ -14952,7 +14996,7 @@
       <c r="AB440" s="3"/>
       <c r="AC440" s="3"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:29" ht="13.2">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="21"/>
@@ -14983,7 +15027,7 @@
       <c r="AB441" s="3"/>
       <c r="AC441" s="3"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:29" ht="13.2">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="21"/>
@@ -15014,7 +15058,7 @@
       <c r="AB442" s="3"/>
       <c r="AC442" s="3"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:29" ht="13.2">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="21"/>
@@ -15045,7 +15089,7 @@
       <c r="AB443" s="3"/>
       <c r="AC443" s="3"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:29" ht="13.2">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="21"/>
@@ -15076,7 +15120,7 @@
       <c r="AB444" s="3"/>
       <c r="AC444" s="3"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:29" ht="13.2">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="21"/>
@@ -15107,7 +15151,7 @@
       <c r="AB445" s="3"/>
       <c r="AC445" s="3"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:29" ht="13.2">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="21"/>
@@ -15138,7 +15182,7 @@
       <c r="AB446" s="3"/>
       <c r="AC446" s="3"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:29" ht="13.2">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="21"/>
@@ -15169,7 +15213,7 @@
       <c r="AB447" s="3"/>
       <c r="AC447" s="3"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:29" ht="13.2">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="21"/>
@@ -15200,7 +15244,7 @@
       <c r="AB448" s="3"/>
       <c r="AC448" s="3"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:29" ht="13.2">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="21"/>
@@ -15231,7 +15275,7 @@
       <c r="AB449" s="3"/>
       <c r="AC449" s="3"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:29" ht="13.2">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="21"/>
@@ -15262,7 +15306,7 @@
       <c r="AB450" s="3"/>
       <c r="AC450" s="3"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:29" ht="13.2">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="21"/>
@@ -15293,7 +15337,7 @@
       <c r="AB451" s="3"/>
       <c r="AC451" s="3"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:29" ht="13.2">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="21"/>
@@ -15324,7 +15368,7 @@
       <c r="AB452" s="3"/>
       <c r="AC452" s="3"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:29" ht="13.2">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="21"/>
@@ -15355,7 +15399,7 @@
       <c r="AB453" s="3"/>
       <c r="AC453" s="3"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:29" ht="13.2">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="21"/>
@@ -15386,7 +15430,7 @@
       <c r="AB454" s="3"/>
       <c r="AC454" s="3"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:29" ht="13.2">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="21"/>
@@ -15417,7 +15461,7 @@
       <c r="AB455" s="3"/>
       <c r="AC455" s="3"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:29" ht="13.2">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="21"/>
@@ -15448,7 +15492,7 @@
       <c r="AB456" s="3"/>
       <c r="AC456" s="3"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:29" ht="13.2">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="21"/>
@@ -15479,7 +15523,7 @@
       <c r="AB457" s="3"/>
       <c r="AC457" s="3"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:29" ht="13.2">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="21"/>
@@ -15510,7 +15554,7 @@
       <c r="AB458" s="3"/>
       <c r="AC458" s="3"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:29" ht="13.2">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="21"/>
@@ -15541,7 +15585,7 @@
       <c r="AB459" s="3"/>
       <c r="AC459" s="3"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:29" ht="13.2">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="21"/>
@@ -15572,7 +15616,7 @@
       <c r="AB460" s="3"/>
       <c r="AC460" s="3"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:29" ht="13.2">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="21"/>
@@ -15603,7 +15647,7 @@
       <c r="AB461" s="3"/>
       <c r="AC461" s="3"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:29" ht="13.2">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="21"/>
@@ -15634,7 +15678,7 @@
       <c r="AB462" s="3"/>
       <c r="AC462" s="3"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:29" ht="13.2">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="21"/>
@@ -15665,7 +15709,7 @@
       <c r="AB463" s="3"/>
       <c r="AC463" s="3"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:29" ht="13.2">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="21"/>
@@ -15696,7 +15740,7 @@
       <c r="AB464" s="3"/>
       <c r="AC464" s="3"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:29" ht="13.2">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="21"/>
@@ -15727,7 +15771,7 @@
       <c r="AB465" s="3"/>
       <c r="AC465" s="3"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:29" ht="13.2">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="21"/>
@@ -15758,7 +15802,7 @@
       <c r="AB466" s="3"/>
       <c r="AC466" s="3"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:29" ht="13.2">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="21"/>
@@ -15789,7 +15833,7 @@
       <c r="AB467" s="3"/>
       <c r="AC467" s="3"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:29" ht="13.2">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="21"/>
@@ -15820,7 +15864,7 @@
       <c r="AB468" s="3"/>
       <c r="AC468" s="3"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:29" ht="13.2">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="21"/>
@@ -15851,7 +15895,7 @@
       <c r="AB469" s="3"/>
       <c r="AC469" s="3"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:29" ht="13.2">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="21"/>
@@ -15882,7 +15926,7 @@
       <c r="AB470" s="3"/>
       <c r="AC470" s="3"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:29" ht="13.2">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="21"/>
@@ -15913,7 +15957,7 @@
       <c r="AB471" s="3"/>
       <c r="AC471" s="3"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:29" ht="13.2">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="21"/>
@@ -15944,7 +15988,7 @@
       <c r="AB472" s="3"/>
       <c r="AC472" s="3"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:29" ht="13.2">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="21"/>
@@ -15975,7 +16019,7 @@
       <c r="AB473" s="3"/>
       <c r="AC473" s="3"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:29" ht="13.2">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="21"/>
@@ -16006,7 +16050,7 @@
       <c r="AB474" s="3"/>
       <c r="AC474" s="3"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:29" ht="13.2">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="21"/>
@@ -16037,7 +16081,7 @@
       <c r="AB475" s="3"/>
       <c r="AC475" s="3"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:29" ht="13.2">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="21"/>
@@ -16068,7 +16112,7 @@
       <c r="AB476" s="3"/>
       <c r="AC476" s="3"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:29" ht="13.2">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="21"/>
@@ -16099,7 +16143,7 @@
       <c r="AB477" s="3"/>
       <c r="AC477" s="3"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:29" ht="13.2">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="21"/>
@@ -16130,7 +16174,7 @@
       <c r="AB478" s="3"/>
       <c r="AC478" s="3"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:29" ht="13.2">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="21"/>
@@ -16161,7 +16205,7 @@
       <c r="AB479" s="3"/>
       <c r="AC479" s="3"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:29" ht="13.2">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="21"/>
@@ -16192,7 +16236,7 @@
       <c r="AB480" s="3"/>
       <c r="AC480" s="3"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:29" ht="13.2">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="21"/>
@@ -16223,7 +16267,7 @@
       <c r="AB481" s="3"/>
       <c r="AC481" s="3"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:29" ht="13.2">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="21"/>
@@ -16254,7 +16298,7 @@
       <c r="AB482" s="3"/>
       <c r="AC482" s="3"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:29" ht="13.2">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="21"/>
@@ -16285,7 +16329,7 @@
       <c r="AB483" s="3"/>
       <c r="AC483" s="3"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:29" ht="13.2">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="21"/>
@@ -16316,7 +16360,7 @@
       <c r="AB484" s="3"/>
       <c r="AC484" s="3"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:29" ht="13.2">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="21"/>
@@ -16347,7 +16391,7 @@
       <c r="AB485" s="3"/>
       <c r="AC485" s="3"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:29" ht="13.2">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="21"/>
@@ -16378,7 +16422,7 @@
       <c r="AB486" s="3"/>
       <c r="AC486" s="3"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:29" ht="13.2">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="21"/>
@@ -16409,7 +16453,7 @@
       <c r="AB487" s="3"/>
       <c r="AC487" s="3"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:29" ht="13.2">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="21"/>
@@ -16440,7 +16484,7 @@
       <c r="AB488" s="3"/>
       <c r="AC488" s="3"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:29" ht="13.2">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="21"/>
@@ -16471,7 +16515,7 @@
       <c r="AB489" s="3"/>
       <c r="AC489" s="3"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:29" ht="13.2">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="21"/>
@@ -16502,7 +16546,7 @@
       <c r="AB490" s="3"/>
       <c r="AC490" s="3"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:29" ht="13.2">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="21"/>
@@ -16533,7 +16577,7 @@
       <c r="AB491" s="3"/>
       <c r="AC491" s="3"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:29" ht="13.2">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="21"/>
@@ -16564,7 +16608,7 @@
       <c r="AB492" s="3"/>
       <c r="AC492" s="3"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:29" ht="13.2">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="21"/>
@@ -16595,7 +16639,7 @@
       <c r="AB493" s="3"/>
       <c r="AC493" s="3"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:29" ht="13.2">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="21"/>
@@ -16626,7 +16670,7 @@
       <c r="AB494" s="3"/>
       <c r="AC494" s="3"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:29" ht="13.2">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="21"/>
@@ -16657,7 +16701,7 @@
       <c r="AB495" s="3"/>
       <c r="AC495" s="3"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:29" ht="13.2">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="21"/>
@@ -16688,7 +16732,7 @@
       <c r="AB496" s="3"/>
       <c r="AC496" s="3"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:29" ht="13.2">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="21"/>
@@ -16719,7 +16763,7 @@
       <c r="AB497" s="3"/>
       <c r="AC497" s="3"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:29" ht="13.2">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="21"/>
@@ -16750,7 +16794,7 @@
       <c r="AB498" s="3"/>
       <c r="AC498" s="3"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:29" ht="13.2">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="21"/>
@@ -16781,7 +16825,7 @@
       <c r="AB499" s="3"/>
       <c r="AC499" s="3"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:29" ht="13.2">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="21"/>
@@ -16812,7 +16856,7 @@
       <c r="AB500" s="3"/>
       <c r="AC500" s="3"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:29" ht="13.2">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="21"/>
@@ -16843,7 +16887,7 @@
       <c r="AB501" s="3"/>
       <c r="AC501" s="3"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:29" ht="13.2">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="21"/>
@@ -16874,7 +16918,7 @@
       <c r="AB502" s="3"/>
       <c r="AC502" s="3"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:29" ht="13.2">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="21"/>
@@ -16905,7 +16949,7 @@
       <c r="AB503" s="3"/>
       <c r="AC503" s="3"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:29" ht="13.2">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="21"/>
@@ -16936,7 +16980,7 @@
       <c r="AB504" s="3"/>
       <c r="AC504" s="3"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:29" ht="13.2">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="21"/>
@@ -16967,7 +17011,7 @@
       <c r="AB505" s="3"/>
       <c r="AC505" s="3"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:29" ht="13.2">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="21"/>
@@ -16998,7 +17042,7 @@
       <c r="AB506" s="3"/>
       <c r="AC506" s="3"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:29" ht="13.2">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="21"/>
@@ -17029,7 +17073,7 @@
       <c r="AB507" s="3"/>
       <c r="AC507" s="3"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:29" ht="13.2">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="21"/>
@@ -17060,7 +17104,7 @@
       <c r="AB508" s="3"/>
       <c r="AC508" s="3"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:29" ht="13.2">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="21"/>
@@ -17091,7 +17135,7 @@
       <c r="AB509" s="3"/>
       <c r="AC509" s="3"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:29" ht="13.2">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="21"/>
@@ -17122,7 +17166,7 @@
       <c r="AB510" s="3"/>
       <c r="AC510" s="3"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:29" ht="13.2">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="21"/>
@@ -17153,7 +17197,7 @@
       <c r="AB511" s="3"/>
       <c r="AC511" s="3"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:29" ht="13.2">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="21"/>
@@ -17184,7 +17228,7 @@
       <c r="AB512" s="3"/>
       <c r="AC512" s="3"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:29" ht="13.2">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="21"/>
@@ -17215,7 +17259,7 @@
       <c r="AB513" s="3"/>
       <c r="AC513" s="3"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:29" ht="13.2">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="21"/>
@@ -17246,7 +17290,7 @@
       <c r="AB514" s="3"/>
       <c r="AC514" s="3"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:29" ht="13.2">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="21"/>
@@ -17277,7 +17321,7 @@
       <c r="AB515" s="3"/>
       <c r="AC515" s="3"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:29" ht="13.2">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="21"/>
@@ -17308,7 +17352,7 @@
       <c r="AB516" s="3"/>
       <c r="AC516" s="3"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:29" ht="13.2">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="21"/>
@@ -17339,7 +17383,7 @@
       <c r="AB517" s="3"/>
       <c r="AC517" s="3"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:29" ht="13.2">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="21"/>
@@ -17370,7 +17414,7 @@
       <c r="AB518" s="3"/>
       <c r="AC518" s="3"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:29" ht="13.2">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="21"/>
@@ -17401,7 +17445,7 @@
       <c r="AB519" s="3"/>
       <c r="AC519" s="3"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:29" ht="13.2">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="21"/>
@@ -17432,7 +17476,7 @@
       <c r="AB520" s="3"/>
       <c r="AC520" s="3"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:29" ht="13.2">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="21"/>
@@ -17463,7 +17507,7 @@
       <c r="AB521" s="3"/>
       <c r="AC521" s="3"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:29" ht="13.2">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="21"/>
@@ -17494,7 +17538,7 @@
       <c r="AB522" s="3"/>
       <c r="AC522" s="3"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:29" ht="13.2">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="21"/>
@@ -17525,7 +17569,7 @@
       <c r="AB523" s="3"/>
       <c r="AC523" s="3"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:29" ht="13.2">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="21"/>
@@ -17556,7 +17600,7 @@
       <c r="AB524" s="3"/>
       <c r="AC524" s="3"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:29" ht="13.2">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="21"/>
@@ -17587,7 +17631,7 @@
       <c r="AB525" s="3"/>
       <c r="AC525" s="3"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:29" ht="13.2">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="21"/>
@@ -17618,7 +17662,7 @@
       <c r="AB526" s="3"/>
       <c r="AC526" s="3"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:29" ht="13.2">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="21"/>
@@ -17649,7 +17693,7 @@
       <c r="AB527" s="3"/>
       <c r="AC527" s="3"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:29" ht="13.2">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="21"/>
@@ -17680,7 +17724,7 @@
       <c r="AB528" s="3"/>
       <c r="AC528" s="3"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:29" ht="13.2">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="21"/>
@@ -17711,7 +17755,7 @@
       <c r="AB529" s="3"/>
       <c r="AC529" s="3"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:29" ht="13.2">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="21"/>
@@ -17742,7 +17786,7 @@
       <c r="AB530" s="3"/>
       <c r="AC530" s="3"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:29" ht="13.2">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="21"/>
@@ -17773,7 +17817,7 @@
       <c r="AB531" s="3"/>
       <c r="AC531" s="3"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:29" ht="13.2">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="21"/>
@@ -17804,7 +17848,7 @@
       <c r="AB532" s="3"/>
       <c r="AC532" s="3"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:29" ht="13.2">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="21"/>
@@ -17835,7 +17879,7 @@
       <c r="AB533" s="3"/>
       <c r="AC533" s="3"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:29" ht="13.2">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="21"/>
@@ -17866,7 +17910,7 @@
       <c r="AB534" s="3"/>
       <c r="AC534" s="3"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:29" ht="13.2">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="21"/>
@@ -17897,7 +17941,7 @@
       <c r="AB535" s="3"/>
       <c r="AC535" s="3"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:29" ht="13.2">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="21"/>
@@ -17928,7 +17972,7 @@
       <c r="AB536" s="3"/>
       <c r="AC536" s="3"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:29" ht="13.2">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="21"/>
@@ -17959,7 +18003,7 @@
       <c r="AB537" s="3"/>
       <c r="AC537" s="3"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:29" ht="13.2">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="21"/>
@@ -17990,7 +18034,7 @@
       <c r="AB538" s="3"/>
       <c r="AC538" s="3"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:29" ht="13.2">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="21"/>
@@ -18021,7 +18065,7 @@
       <c r="AB539" s="3"/>
       <c r="AC539" s="3"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:29" ht="13.2">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="21"/>
@@ -18052,7 +18096,7 @@
       <c r="AB540" s="3"/>
       <c r="AC540" s="3"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:29" ht="13.2">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="21"/>
@@ -18083,7 +18127,7 @@
       <c r="AB541" s="3"/>
       <c r="AC541" s="3"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:29" ht="13.2">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="21"/>
@@ -18114,7 +18158,7 @@
       <c r="AB542" s="3"/>
       <c r="AC542" s="3"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:29" ht="13.2">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="21"/>
@@ -18145,7 +18189,7 @@
       <c r="AB543" s="3"/>
       <c r="AC543" s="3"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:29" ht="13.2">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="21"/>
@@ -18176,7 +18220,7 @@
       <c r="AB544" s="3"/>
       <c r="AC544" s="3"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:29" ht="13.2">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="21"/>
@@ -18207,7 +18251,7 @@
       <c r="AB545" s="3"/>
       <c r="AC545" s="3"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:29" ht="13.2">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="21"/>
@@ -18238,7 +18282,7 @@
       <c r="AB546" s="3"/>
       <c r="AC546" s="3"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:29" ht="13.2">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="21"/>
@@ -18269,7 +18313,7 @@
       <c r="AB547" s="3"/>
       <c r="AC547" s="3"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:29" ht="13.2">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="21"/>
@@ -18300,7 +18344,7 @@
       <c r="AB548" s="3"/>
       <c r="AC548" s="3"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:29" ht="13.2">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="21"/>
@@ -18331,7 +18375,7 @@
       <c r="AB549" s="3"/>
       <c r="AC549" s="3"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:29" ht="13.2">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="21"/>
@@ -18362,7 +18406,7 @@
       <c r="AB550" s="3"/>
       <c r="AC550" s="3"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:29" ht="13.2">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="21"/>
@@ -18393,7 +18437,7 @@
       <c r="AB551" s="3"/>
       <c r="AC551" s="3"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:29" ht="13.2">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="21"/>
@@ -18424,7 +18468,7 @@
       <c r="AB552" s="3"/>
       <c r="AC552" s="3"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:29" ht="13.2">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="21"/>
@@ -18455,7 +18499,7 @@
       <c r="AB553" s="3"/>
       <c r="AC553" s="3"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:29" ht="13.2">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="21"/>
@@ -18486,7 +18530,7 @@
       <c r="AB554" s="3"/>
       <c r="AC554" s="3"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:29" ht="13.2">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="21"/>
@@ -18517,7 +18561,7 @@
       <c r="AB555" s="3"/>
       <c r="AC555" s="3"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:29" ht="13.2">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="21"/>
@@ -18548,7 +18592,7 @@
       <c r="AB556" s="3"/>
       <c r="AC556" s="3"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:29" ht="13.2">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="21"/>
@@ -18579,7 +18623,7 @@
       <c r="AB557" s="3"/>
       <c r="AC557" s="3"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:29" ht="13.2">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="21"/>
@@ -18610,7 +18654,7 @@
       <c r="AB558" s="3"/>
       <c r="AC558" s="3"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:29" ht="13.2">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="21"/>
@@ -18641,7 +18685,7 @@
       <c r="AB559" s="3"/>
       <c r="AC559" s="3"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:29" ht="13.2">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="21"/>
@@ -18672,7 +18716,7 @@
       <c r="AB560" s="3"/>
       <c r="AC560" s="3"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:29" ht="13.2">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="21"/>
@@ -18703,7 +18747,7 @@
       <c r="AB561" s="3"/>
       <c r="AC561" s="3"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:29" ht="13.2">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="21"/>
@@ -18734,7 +18778,7 @@
       <c r="AB562" s="3"/>
       <c r="AC562" s="3"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:29" ht="13.2">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="21"/>
@@ -18765,7 +18809,7 @@
       <c r="AB563" s="3"/>
       <c r="AC563" s="3"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:29" ht="13.2">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="21"/>
@@ -18796,7 +18840,7 @@
       <c r="AB564" s="3"/>
       <c r="AC564" s="3"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:29" ht="13.2">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="21"/>
@@ -18827,7 +18871,7 @@
       <c r="AB565" s="3"/>
       <c r="AC565" s="3"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:29" ht="13.2">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="21"/>
@@ -18858,7 +18902,7 @@
       <c r="AB566" s="3"/>
       <c r="AC566" s="3"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:29" ht="13.2">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="21"/>
@@ -18889,7 +18933,7 @@
       <c r="AB567" s="3"/>
       <c r="AC567" s="3"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:29" ht="13.2">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="21"/>
@@ -18920,7 +18964,7 @@
       <c r="AB568" s="3"/>
       <c r="AC568" s="3"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:29" ht="13.2">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="21"/>
@@ -18951,7 +18995,7 @@
       <c r="AB569" s="3"/>
       <c r="AC569" s="3"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:29" ht="13.2">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="21"/>
@@ -18982,7 +19026,7 @@
       <c r="AB570" s="3"/>
       <c r="AC570" s="3"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:29" ht="13.2">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="21"/>
@@ -19013,7 +19057,7 @@
       <c r="AB571" s="3"/>
       <c r="AC571" s="3"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:29" ht="13.2">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="21"/>
@@ -19044,7 +19088,7 @@
       <c r="AB572" s="3"/>
       <c r="AC572" s="3"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:29" ht="13.2">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="21"/>
@@ -19075,7 +19119,7 @@
       <c r="AB573" s="3"/>
       <c r="AC573" s="3"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:29" ht="13.2">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="21"/>
@@ -19106,7 +19150,7 @@
       <c r="AB574" s="3"/>
       <c r="AC574" s="3"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:29" ht="13.2">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="21"/>
@@ -19137,7 +19181,7 @@
       <c r="AB575" s="3"/>
       <c r="AC575" s="3"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:29" ht="13.2">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="21"/>
@@ -19168,7 +19212,7 @@
       <c r="AB576" s="3"/>
       <c r="AC576" s="3"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:29" ht="13.2">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="21"/>
@@ -19199,7 +19243,7 @@
       <c r="AB577" s="3"/>
       <c r="AC577" s="3"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:29" ht="13.2">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="21"/>
@@ -19230,7 +19274,7 @@
       <c r="AB578" s="3"/>
       <c r="AC578" s="3"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:29" ht="13.2">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="21"/>
@@ -19261,7 +19305,7 @@
       <c r="AB579" s="3"/>
       <c r="AC579" s="3"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:29" ht="13.2">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="21"/>
@@ -19292,7 +19336,7 @@
       <c r="AB580" s="3"/>
       <c r="AC580" s="3"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:29" ht="13.2">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="21"/>
@@ -19323,7 +19367,7 @@
       <c r="AB581" s="3"/>
       <c r="AC581" s="3"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:29" ht="13.2">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="21"/>
@@ -19354,7 +19398,7 @@
       <c r="AB582" s="3"/>
       <c r="AC582" s="3"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:29" ht="13.2">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="21"/>
@@ -19385,7 +19429,7 @@
       <c r="AB583" s="3"/>
       <c r="AC583" s="3"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:29" ht="13.2">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="21"/>
@@ -19416,7 +19460,7 @@
       <c r="AB584" s="3"/>
       <c r="AC584" s="3"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:29" ht="13.2">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="21"/>
@@ -19447,7 +19491,7 @@
       <c r="AB585" s="3"/>
       <c r="AC585" s="3"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:29" ht="13.2">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="21"/>
@@ -19478,7 +19522,7 @@
       <c r="AB586" s="3"/>
       <c r="AC586" s="3"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:29" ht="13.2">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="21"/>
@@ -19509,7 +19553,7 @@
       <c r="AB587" s="3"/>
       <c r="AC587" s="3"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:29" ht="13.2">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="21"/>
@@ -19540,7 +19584,7 @@
       <c r="AB588" s="3"/>
       <c r="AC588" s="3"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:29" ht="13.2">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="21"/>
@@ -19571,7 +19615,7 @@
       <c r="AB589" s="3"/>
       <c r="AC589" s="3"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:29" ht="13.2">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="21"/>
@@ -19602,7 +19646,7 @@
       <c r="AB590" s="3"/>
       <c r="AC590" s="3"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:29" ht="13.2">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="21"/>
@@ -19633,7 +19677,7 @@
       <c r="AB591" s="3"/>
       <c r="AC591" s="3"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:29" ht="13.2">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="21"/>
@@ -19664,7 +19708,7 @@
       <c r="AB592" s="3"/>
       <c r="AC592" s="3"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:29" ht="13.2">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="21"/>
@@ -19695,7 +19739,7 @@
       <c r="AB593" s="3"/>
       <c r="AC593" s="3"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:29" ht="13.2">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="21"/>
@@ -19726,7 +19770,7 @@
       <c r="AB594" s="3"/>
       <c r="AC594" s="3"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:29" ht="13.2">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="21"/>
@@ -19757,7 +19801,7 @@
       <c r="AB595" s="3"/>
       <c r="AC595" s="3"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:29" ht="13.2">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="21"/>
@@ -19788,7 +19832,7 @@
       <c r="AB596" s="3"/>
       <c r="AC596" s="3"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:29" ht="13.2">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="21"/>
@@ -19819,7 +19863,7 @@
       <c r="AB597" s="3"/>
       <c r="AC597" s="3"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:29" ht="13.2">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="21"/>
@@ -19850,7 +19894,7 @@
       <c r="AB598" s="3"/>
       <c r="AC598" s="3"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:29" ht="13.2">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="21"/>
@@ -19881,7 +19925,7 @@
       <c r="AB599" s="3"/>
       <c r="AC599" s="3"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:29" ht="13.2">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="21"/>
@@ -19912,7 +19956,7 @@
       <c r="AB600" s="3"/>
       <c r="AC600" s="3"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:29" ht="13.2">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="21"/>
@@ -19943,7 +19987,7 @@
       <c r="AB601" s="3"/>
       <c r="AC601" s="3"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:29" ht="13.2">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="21"/>
@@ -19974,7 +20018,7 @@
       <c r="AB602" s="3"/>
       <c r="AC602" s="3"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:29" ht="13.2">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="21"/>
@@ -20005,7 +20049,7 @@
       <c r="AB603" s="3"/>
       <c r="AC603" s="3"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:29" ht="13.2">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="21"/>
@@ -20036,7 +20080,7 @@
       <c r="AB604" s="3"/>
       <c r="AC604" s="3"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:29" ht="13.2">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="21"/>
@@ -20067,7 +20111,7 @@
       <c r="AB605" s="3"/>
       <c r="AC605" s="3"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:29" ht="13.2">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="21"/>
@@ -20098,7 +20142,7 @@
       <c r="AB606" s="3"/>
       <c r="AC606" s="3"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:29" ht="13.2">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="21"/>
@@ -20129,7 +20173,7 @@
       <c r="AB607" s="3"/>
       <c r="AC607" s="3"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:29" ht="13.2">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="21"/>
@@ -20160,7 +20204,7 @@
       <c r="AB608" s="3"/>
       <c r="AC608" s="3"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:29" ht="13.2">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="21"/>
@@ -20191,7 +20235,7 @@
       <c r="AB609" s="3"/>
       <c r="AC609" s="3"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:29" ht="13.2">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="21"/>
@@ -20222,7 +20266,7 @@
       <c r="AB610" s="3"/>
       <c r="AC610" s="3"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:29" ht="13.2">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="21"/>
@@ -20253,7 +20297,7 @@
       <c r="AB611" s="3"/>
       <c r="AC611" s="3"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:29" ht="13.2">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="21"/>
@@ -20284,7 +20328,7 @@
       <c r="AB612" s="3"/>
       <c r="AC612" s="3"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:29" ht="13.2">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="21"/>
@@ -20315,7 +20359,7 @@
       <c r="AB613" s="3"/>
       <c r="AC613" s="3"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:29" ht="13.2">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="21"/>
@@ -20346,7 +20390,7 @@
       <c r="AB614" s="3"/>
       <c r="AC614" s="3"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:29" ht="13.2">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="21"/>
@@ -20377,7 +20421,7 @@
       <c r="AB615" s="3"/>
       <c r="AC615" s="3"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:29" ht="13.2">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="21"/>
@@ -20408,7 +20452,7 @@
       <c r="AB616" s="3"/>
       <c r="AC616" s="3"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:29" ht="13.2">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="21"/>
@@ -20439,7 +20483,7 @@
       <c r="AB617" s="3"/>
       <c r="AC617" s="3"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:29" ht="13.2">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="21"/>
@@ -20470,7 +20514,7 @@
       <c r="AB618" s="3"/>
       <c r="AC618" s="3"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:29" ht="13.2">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="21"/>
@@ -20501,7 +20545,7 @@
       <c r="AB619" s="3"/>
       <c r="AC619" s="3"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:29" ht="13.2">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="21"/>
@@ -20532,7 +20576,7 @@
       <c r="AB620" s="3"/>
       <c r="AC620" s="3"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:29" ht="13.2">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="21"/>
@@ -20563,7 +20607,7 @@
       <c r="AB621" s="3"/>
       <c r="AC621" s="3"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:29" ht="13.2">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="21"/>
@@ -20594,7 +20638,7 @@
       <c r="AB622" s="3"/>
       <c r="AC622" s="3"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:29" ht="13.2">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="21"/>
@@ -20625,7 +20669,7 @@
       <c r="AB623" s="3"/>
       <c r="AC623" s="3"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:29" ht="13.2">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="21"/>
@@ -20656,7 +20700,7 @@
       <c r="AB624" s="3"/>
       <c r="AC624" s="3"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:29" ht="13.2">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="21"/>
@@ -20687,7 +20731,7 @@
       <c r="AB625" s="3"/>
       <c r="AC625" s="3"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:29" ht="13.2">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="21"/>
@@ -20718,7 +20762,7 @@
       <c r="AB626" s="3"/>
       <c r="AC626" s="3"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:29" ht="13.2">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="21"/>
@@ -20749,7 +20793,7 @@
       <c r="AB627" s="3"/>
       <c r="AC627" s="3"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:29" ht="13.2">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="21"/>
@@ -20780,7 +20824,7 @@
       <c r="AB628" s="3"/>
       <c r="AC628" s="3"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:29" ht="13.2">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="21"/>
@@ -20811,7 +20855,7 @@
       <c r="AB629" s="3"/>
       <c r="AC629" s="3"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:29" ht="13.2">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="21"/>
@@ -20842,7 +20886,7 @@
       <c r="AB630" s="3"/>
       <c r="AC630" s="3"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:29" ht="13.2">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="21"/>
@@ -20873,7 +20917,7 @@
       <c r="AB631" s="3"/>
       <c r="AC631" s="3"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:29" ht="13.2">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="21"/>
@@ -20904,7 +20948,7 @@
       <c r="AB632" s="3"/>
       <c r="AC632" s="3"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:29" ht="13.2">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="21"/>
@@ -20935,7 +20979,7 @@
       <c r="AB633" s="3"/>
       <c r="AC633" s="3"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:29" ht="13.2">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="21"/>
@@ -20966,7 +21010,7 @@
       <c r="AB634" s="3"/>
       <c r="AC634" s="3"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:29" ht="13.2">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="21"/>
@@ -20997,7 +21041,7 @@
       <c r="AB635" s="3"/>
       <c r="AC635" s="3"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:29" ht="13.2">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="21"/>
@@ -21028,7 +21072,7 @@
       <c r="AB636" s="3"/>
       <c r="AC636" s="3"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:29" ht="13.2">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="21"/>
@@ -21059,7 +21103,7 @@
       <c r="AB637" s="3"/>
       <c r="AC637" s="3"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:29" ht="13.2">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="21"/>
@@ -21090,7 +21134,7 @@
       <c r="AB638" s="3"/>
       <c r="AC638" s="3"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:29" ht="13.2">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="21"/>
@@ -21121,7 +21165,7 @@
       <c r="AB639" s="3"/>
       <c r="AC639" s="3"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:29" ht="13.2">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="21"/>
@@ -21152,7 +21196,7 @@
       <c r="AB640" s="3"/>
       <c r="AC640" s="3"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:29" ht="13.2">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="21"/>
@@ -21183,7 +21227,7 @@
       <c r="AB641" s="3"/>
       <c r="AC641" s="3"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:29" ht="13.2">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="21"/>
@@ -21214,7 +21258,7 @@
       <c r="AB642" s="3"/>
       <c r="AC642" s="3"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:29" ht="13.2">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="21"/>
@@ -21245,7 +21289,7 @@
       <c r="AB643" s="3"/>
       <c r="AC643" s="3"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:29" ht="13.2">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="21"/>
@@ -21276,7 +21320,7 @@
       <c r="AB644" s="3"/>
       <c r="AC644" s="3"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:29" ht="13.2">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="21"/>
@@ -21307,7 +21351,7 @@
       <c r="AB645" s="3"/>
       <c r="AC645" s="3"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:29" ht="13.2">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="21"/>
@@ -21338,7 +21382,7 @@
       <c r="AB646" s="3"/>
       <c r="AC646" s="3"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:29" ht="13.2">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="21"/>
@@ -21369,7 +21413,7 @@
       <c r="AB647" s="3"/>
       <c r="AC647" s="3"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:29" ht="13.2">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="21"/>
@@ -21400,7 +21444,7 @@
       <c r="AB648" s="3"/>
       <c r="AC648" s="3"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:29" ht="13.2">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="21"/>
@@ -21431,7 +21475,7 @@
       <c r="AB649" s="3"/>
       <c r="AC649" s="3"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:29" ht="13.2">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="21"/>
@@ -21462,7 +21506,7 @@
       <c r="AB650" s="3"/>
       <c r="AC650" s="3"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:29" ht="13.2">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="21"/>
@@ -21493,7 +21537,7 @@
       <c r="AB651" s="3"/>
       <c r="AC651" s="3"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:29" ht="13.2">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="21"/>
@@ -21524,7 +21568,7 @@
       <c r="AB652" s="3"/>
       <c r="AC652" s="3"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:29" ht="13.2">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="21"/>
@@ -21555,7 +21599,7 @@
       <c r="AB653" s="3"/>
       <c r="AC653" s="3"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:29" ht="13.2">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="21"/>
@@ -21586,7 +21630,7 @@
       <c r="AB654" s="3"/>
       <c r="AC654" s="3"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:29" ht="13.2">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="21"/>
@@ -21617,7 +21661,7 @@
       <c r="AB655" s="3"/>
       <c r="AC655" s="3"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:29" ht="13.2">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="21"/>
@@ -21648,7 +21692,7 @@
       <c r="AB656" s="3"/>
       <c r="AC656" s="3"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:29" ht="13.2">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="21"/>
@@ -21679,7 +21723,7 @@
       <c r="AB657" s="3"/>
       <c r="AC657" s="3"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:29" ht="13.2">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="21"/>
@@ -21710,7 +21754,7 @@
       <c r="AB658" s="3"/>
       <c r="AC658" s="3"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:29" ht="13.2">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="21"/>
@@ -21741,7 +21785,7 @@
       <c r="AB659" s="3"/>
       <c r="AC659" s="3"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:29" ht="13.2">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="21"/>
@@ -21772,7 +21816,7 @@
       <c r="AB660" s="3"/>
       <c r="AC660" s="3"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:29" ht="13.2">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="21"/>
@@ -21803,7 +21847,7 @@
       <c r="AB661" s="3"/>
       <c r="AC661" s="3"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:29" ht="13.2">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="21"/>
@@ -21834,7 +21878,7 @@
       <c r="AB662" s="3"/>
       <c r="AC662" s="3"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:29" ht="13.2">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="21"/>
@@ -21865,7 +21909,7 @@
       <c r="AB663" s="3"/>
       <c r="AC663" s="3"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:29" ht="13.2">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="21"/>
@@ -21896,7 +21940,7 @@
       <c r="AB664" s="3"/>
       <c r="AC664" s="3"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:29" ht="13.2">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="21"/>
@@ -21927,7 +21971,7 @@
       <c r="AB665" s="3"/>
       <c r="AC665" s="3"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:29" ht="13.2">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="21"/>
@@ -21958,7 +22002,7 @@
       <c r="AB666" s="3"/>
       <c r="AC666" s="3"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:29" ht="13.2">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="21"/>
@@ -21989,7 +22033,7 @@
       <c r="AB667" s="3"/>
       <c r="AC667" s="3"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:29" ht="13.2">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="21"/>
@@ -22020,7 +22064,7 @@
       <c r="AB668" s="3"/>
       <c r="AC668" s="3"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:29" ht="13.2">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="21"/>
@@ -22051,7 +22095,7 @@
       <c r="AB669" s="3"/>
       <c r="AC669" s="3"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:29" ht="13.2">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="21"/>
@@ -22082,7 +22126,7 @@
       <c r="AB670" s="3"/>
       <c r="AC670" s="3"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:29" ht="13.2">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="21"/>
@@ -22113,7 +22157,7 @@
       <c r="AB671" s="3"/>
       <c r="AC671" s="3"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:29" ht="13.2">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="21"/>
@@ -22144,7 +22188,7 @@
       <c r="AB672" s="3"/>
       <c r="AC672" s="3"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:29" ht="13.2">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="21"/>
@@ -22175,7 +22219,7 @@
       <c r="AB673" s="3"/>
       <c r="AC673" s="3"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:29" ht="13.2">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="21"/>
@@ -22206,7 +22250,7 @@
       <c r="AB674" s="3"/>
       <c r="AC674" s="3"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:29" ht="13.2">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="21"/>
@@ -22237,7 +22281,7 @@
       <c r="AB675" s="3"/>
       <c r="AC675" s="3"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:29" ht="13.2">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="21"/>
@@ -22268,7 +22312,7 @@
       <c r="AB676" s="3"/>
       <c r="AC676" s="3"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:29" ht="13.2">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="21"/>
@@ -22299,7 +22343,7 @@
       <c r="AB677" s="3"/>
       <c r="AC677" s="3"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:29" ht="13.2">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="21"/>
@@ -22330,7 +22374,7 @@
       <c r="AB678" s="3"/>
       <c r="AC678" s="3"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:29" ht="13.2">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="21"/>
@@ -22361,7 +22405,7 @@
       <c r="AB679" s="3"/>
       <c r="AC679" s="3"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:29" ht="13.2">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="21"/>
@@ -22392,7 +22436,7 @@
       <c r="AB680" s="3"/>
       <c r="AC680" s="3"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:29" ht="13.2">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="21"/>
@@ -22423,7 +22467,7 @@
       <c r="AB681" s="3"/>
       <c r="AC681" s="3"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:29" ht="13.2">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="21"/>
@@ -22454,7 +22498,7 @@
       <c r="AB682" s="3"/>
       <c r="AC682" s="3"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:29" ht="13.2">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="21"/>
@@ -22485,7 +22529,7 @@
       <c r="AB683" s="3"/>
       <c r="AC683" s="3"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:29" ht="13.2">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="21"/>
@@ -22516,7 +22560,7 @@
       <c r="AB684" s="3"/>
       <c r="AC684" s="3"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:29" ht="13.2">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="21"/>
@@ -22547,7 +22591,7 @@
       <c r="AB685" s="3"/>
       <c r="AC685" s="3"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:29" ht="13.2">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="21"/>
@@ -22578,7 +22622,7 @@
       <c r="AB686" s="3"/>
       <c r="AC686" s="3"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:29" ht="13.2">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="21"/>
@@ -22609,7 +22653,7 @@
       <c r="AB687" s="3"/>
       <c r="AC687" s="3"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:29" ht="13.2">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="21"/>
@@ -22640,7 +22684,7 @@
       <c r="AB688" s="3"/>
       <c r="AC688" s="3"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:29" ht="13.2">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="21"/>
@@ -22671,7 +22715,7 @@
       <c r="AB689" s="3"/>
       <c r="AC689" s="3"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:29" ht="13.2">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="21"/>
@@ -22702,7 +22746,7 @@
       <c r="AB690" s="3"/>
       <c r="AC690" s="3"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:29" ht="13.2">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="21"/>
@@ -22733,7 +22777,7 @@
       <c r="AB691" s="3"/>
       <c r="AC691" s="3"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:29" ht="13.2">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="21"/>
@@ -22764,7 +22808,7 @@
       <c r="AB692" s="3"/>
       <c r="AC692" s="3"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:29" ht="13.2">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="21"/>
@@ -22795,7 +22839,7 @@
       <c r="AB693" s="3"/>
       <c r="AC693" s="3"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:29" ht="13.2">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="21"/>
@@ -22826,7 +22870,7 @@
       <c r="AB694" s="3"/>
       <c r="AC694" s="3"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:29" ht="13.2">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="21"/>
@@ -22857,7 +22901,7 @@
       <c r="AB695" s="3"/>
       <c r="AC695" s="3"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:29" ht="13.2">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="21"/>
@@ -22888,7 +22932,7 @@
       <c r="AB696" s="3"/>
       <c r="AC696" s="3"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:29" ht="13.2">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="21"/>
@@ -22919,7 +22963,7 @@
       <c r="AB697" s="3"/>
       <c r="AC697" s="3"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:29" ht="13.2">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="21"/>
@@ -22950,7 +22994,7 @@
       <c r="AB698" s="3"/>
       <c r="AC698" s="3"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:29" ht="13.2">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="21"/>
@@ -22981,7 +23025,7 @@
       <c r="AB699" s="3"/>
       <c r="AC699" s="3"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:29" ht="13.2">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="21"/>
@@ -23012,7 +23056,7 @@
       <c r="AB700" s="3"/>
       <c r="AC700" s="3"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:29" ht="13.2">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="21"/>
@@ -23043,7 +23087,7 @@
       <c r="AB701" s="3"/>
       <c r="AC701" s="3"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:29" ht="13.2">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="21"/>
@@ -23074,7 +23118,7 @@
       <c r="AB702" s="3"/>
       <c r="AC702" s="3"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:29" ht="13.2">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="21"/>
@@ -23105,7 +23149,7 @@
       <c r="AB703" s="3"/>
       <c r="AC703" s="3"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:29" ht="13.2">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="21"/>
@@ -23136,7 +23180,7 @@
       <c r="AB704" s="3"/>
       <c r="AC704" s="3"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:29" ht="13.2">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="21"/>
@@ -23167,7 +23211,7 @@
       <c r="AB705" s="3"/>
       <c r="AC705" s="3"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:29" ht="13.2">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="21"/>
@@ -23198,7 +23242,7 @@
       <c r="AB706" s="3"/>
       <c r="AC706" s="3"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:29" ht="13.2">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="21"/>
@@ -23229,7 +23273,7 @@
       <c r="AB707" s="3"/>
       <c r="AC707" s="3"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:29" ht="13.2">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="21"/>
@@ -23260,7 +23304,7 @@
       <c r="AB708" s="3"/>
       <c r="AC708" s="3"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:29" ht="13.2">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="21"/>
@@ -23291,7 +23335,7 @@
       <c r="AB709" s="3"/>
       <c r="AC709" s="3"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:29" ht="13.2">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="21"/>
@@ -23322,7 +23366,7 @@
       <c r="AB710" s="3"/>
       <c r="AC710" s="3"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:29" ht="13.2">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="21"/>
@@ -23353,7 +23397,7 @@
       <c r="AB711" s="3"/>
       <c r="AC711" s="3"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:29" ht="13.2">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="21"/>
@@ -23384,7 +23428,7 @@
       <c r="AB712" s="3"/>
       <c r="AC712" s="3"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:29" ht="13.2">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="21"/>
@@ -23415,7 +23459,7 @@
       <c r="AB713" s="3"/>
       <c r="AC713" s="3"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:29" ht="13.2">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="21"/>
@@ -23446,7 +23490,7 @@
       <c r="AB714" s="3"/>
       <c r="AC714" s="3"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:29" ht="13.2">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="21"/>
@@ -23477,7 +23521,7 @@
       <c r="AB715" s="3"/>
       <c r="AC715" s="3"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:29" ht="13.2">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="21"/>
@@ -23508,7 +23552,7 @@
       <c r="AB716" s="3"/>
       <c r="AC716" s="3"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:29" ht="13.2">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="21"/>
@@ -23539,7 +23583,7 @@
       <c r="AB717" s="3"/>
       <c r="AC717" s="3"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:29" ht="13.2">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="21"/>
@@ -23570,7 +23614,7 @@
       <c r="AB718" s="3"/>
       <c r="AC718" s="3"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:29" ht="13.2">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="21"/>
@@ -23601,7 +23645,7 @@
       <c r="AB719" s="3"/>
       <c r="AC719" s="3"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:29" ht="13.2">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="21"/>
@@ -23632,7 +23676,7 @@
       <c r="AB720" s="3"/>
       <c r="AC720" s="3"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:29" ht="13.2">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="21"/>
@@ -23663,7 +23707,7 @@
       <c r="AB721" s="3"/>
       <c r="AC721" s="3"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:29" ht="13.2">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="21"/>
@@ -23694,7 +23738,7 @@
       <c r="AB722" s="3"/>
       <c r="AC722" s="3"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:29" ht="13.2">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="21"/>
@@ -23725,7 +23769,7 @@
       <c r="AB723" s="3"/>
       <c r="AC723" s="3"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:29" ht="13.2">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="21"/>
@@ -23756,7 +23800,7 @@
       <c r="AB724" s="3"/>
       <c r="AC724" s="3"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:29" ht="13.2">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="21"/>
@@ -23787,7 +23831,7 @@
       <c r="AB725" s="3"/>
       <c r="AC725" s="3"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:29" ht="13.2">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="21"/>
@@ -23818,7 +23862,7 @@
       <c r="AB726" s="3"/>
       <c r="AC726" s="3"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:29" ht="13.2">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="21"/>
@@ -23849,7 +23893,7 @@
       <c r="AB727" s="3"/>
       <c r="AC727" s="3"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:29" ht="13.2">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="21"/>
@@ -23880,7 +23924,7 @@
       <c r="AB728" s="3"/>
       <c r="AC728" s="3"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:29" ht="13.2">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="21"/>
@@ -23911,7 +23955,7 @@
       <c r="AB729" s="3"/>
       <c r="AC729" s="3"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:29" ht="13.2">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="21"/>
@@ -23942,7 +23986,7 @@
       <c r="AB730" s="3"/>
       <c r="AC730" s="3"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:29" ht="13.2">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="21"/>
@@ -23973,7 +24017,7 @@
       <c r="AB731" s="3"/>
       <c r="AC731" s="3"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:29" ht="13.2">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="21"/>
@@ -24004,7 +24048,7 @@
       <c r="AB732" s="3"/>
       <c r="AC732" s="3"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:29" ht="13.2">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="21"/>
@@ -24035,7 +24079,7 @@
       <c r="AB733" s="3"/>
       <c r="AC733" s="3"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:29" ht="13.2">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="21"/>
@@ -24066,7 +24110,7 @@
       <c r="AB734" s="3"/>
       <c r="AC734" s="3"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:29" ht="13.2">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="21"/>
@@ -24097,7 +24141,7 @@
       <c r="AB735" s="3"/>
       <c r="AC735" s="3"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:29" ht="13.2">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="21"/>
@@ -24128,7 +24172,7 @@
       <c r="AB736" s="3"/>
       <c r="AC736" s="3"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:29" ht="13.2">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="21"/>
@@ -24159,7 +24203,7 @@
       <c r="AB737" s="3"/>
       <c r="AC737" s="3"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:29" ht="13.2">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="21"/>
@@ -24190,7 +24234,7 @@
       <c r="AB738" s="3"/>
       <c r="AC738" s="3"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:29" ht="13.2">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="21"/>
@@ -24221,7 +24265,7 @@
       <c r="AB739" s="3"/>
       <c r="AC739" s="3"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:29" ht="13.2">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="21"/>
@@ -24252,7 +24296,7 @@
       <c r="AB740" s="3"/>
       <c r="AC740" s="3"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:29" ht="13.2">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="21"/>
@@ -24283,7 +24327,7 @@
       <c r="AB741" s="3"/>
       <c r="AC741" s="3"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:29" ht="13.2">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="21"/>
@@ -24314,7 +24358,7 @@
       <c r="AB742" s="3"/>
       <c r="AC742" s="3"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:29" ht="13.2">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="21"/>
@@ -24345,7 +24389,7 @@
       <c r="AB743" s="3"/>
       <c r="AC743" s="3"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:29" ht="13.2">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="21"/>
@@ -24376,7 +24420,7 @@
       <c r="AB744" s="3"/>
       <c r="AC744" s="3"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:29" ht="13.2">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="21"/>
@@ -24407,7 +24451,7 @@
       <c r="AB745" s="3"/>
       <c r="AC745" s="3"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:29" ht="13.2">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="21"/>
@@ -24438,7 +24482,7 @@
       <c r="AB746" s="3"/>
       <c r="AC746" s="3"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:29" ht="13.2">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="21"/>
@@ -24469,7 +24513,7 @@
       <c r="AB747" s="3"/>
       <c r="AC747" s="3"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:29" ht="13.2">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="21"/>
@@ -24500,7 +24544,7 @@
       <c r="AB748" s="3"/>
       <c r="AC748" s="3"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:29" ht="13.2">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="21"/>
@@ -24531,7 +24575,7 @@
       <c r="AB749" s="3"/>
       <c r="AC749" s="3"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:29" ht="13.2">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="21"/>
@@ -24562,7 +24606,7 @@
       <c r="AB750" s="3"/>
       <c r="AC750" s="3"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:29" ht="13.2">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="21"/>
@@ -24593,7 +24637,7 @@
       <c r="AB751" s="3"/>
       <c r="AC751" s="3"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:29" ht="13.2">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="21"/>
@@ -24624,7 +24668,7 @@
       <c r="AB752" s="3"/>
       <c r="AC752" s="3"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:29" ht="13.2">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="21"/>
@@ -24655,7 +24699,7 @@
       <c r="AB753" s="3"/>
       <c r="AC753" s="3"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:29" ht="13.2">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="21"/>
@@ -24686,7 +24730,7 @@
       <c r="AB754" s="3"/>
       <c r="AC754" s="3"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:29" ht="13.2">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="21"/>
@@ -24717,7 +24761,7 @@
       <c r="AB755" s="3"/>
       <c r="AC755" s="3"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:29" ht="13.2">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="21"/>
@@ -24748,7 +24792,7 @@
       <c r="AB756" s="3"/>
       <c r="AC756" s="3"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:29" ht="13.2">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="21"/>
@@ -24779,7 +24823,7 @@
       <c r="AB757" s="3"/>
       <c r="AC757" s="3"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:29" ht="13.2">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="21"/>
@@ -24810,7 +24854,7 @@
       <c r="AB758" s="3"/>
       <c r="AC758" s="3"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:29" ht="13.2">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="21"/>
@@ -24841,7 +24885,7 @@
       <c r="AB759" s="3"/>
       <c r="AC759" s="3"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:29" ht="13.2">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="21"/>
@@ -24872,7 +24916,7 @@
       <c r="AB760" s="3"/>
       <c r="AC760" s="3"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:29" ht="13.2">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="21"/>
@@ -24903,7 +24947,7 @@
       <c r="AB761" s="3"/>
       <c r="AC761" s="3"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:29" ht="13.2">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="21"/>
@@ -24934,7 +24978,7 @@
       <c r="AB762" s="3"/>
       <c r="AC762" s="3"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:29" ht="13.2">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="21"/>
@@ -24965,7 +25009,7 @@
       <c r="AB763" s="3"/>
       <c r="AC763" s="3"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:29" ht="13.2">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="21"/>
@@ -24996,7 +25040,7 @@
       <c r="AB764" s="3"/>
       <c r="AC764" s="3"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:29" ht="13.2">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="21"/>
@@ -25027,7 +25071,7 @@
       <c r="AB765" s="3"/>
       <c r="AC765" s="3"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:29" ht="13.2">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="21"/>
@@ -25058,7 +25102,7 @@
       <c r="AB766" s="3"/>
       <c r="AC766" s="3"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:29" ht="13.2">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="21"/>
@@ -25089,7 +25133,7 @@
       <c r="AB767" s="3"/>
       <c r="AC767" s="3"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:29" ht="13.2">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="21"/>
@@ -25120,7 +25164,7 @@
       <c r="AB768" s="3"/>
       <c r="AC768" s="3"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:29" ht="13.2">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="21"/>
@@ -25151,7 +25195,7 @@
       <c r="AB769" s="3"/>
       <c r="AC769" s="3"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:29" ht="13.2">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="21"/>
@@ -25182,7 +25226,7 @@
       <c r="AB770" s="3"/>
       <c r="AC770" s="3"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:29" ht="13.2">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="21"/>
@@ -25213,7 +25257,7 @@
       <c r="AB771" s="3"/>
       <c r="AC771" s="3"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:29" ht="13.2">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="21"/>
@@ -25244,7 +25288,7 @@
       <c r="AB772" s="3"/>
       <c r="AC772" s="3"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:29" ht="13.2">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="21"/>
@@ -25275,7 +25319,7 @@
       <c r="AB773" s="3"/>
       <c r="AC773" s="3"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:29" ht="13.2">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="21"/>
@@ -25306,7 +25350,7 @@
       <c r="AB774" s="3"/>
       <c r="AC774" s="3"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:29" ht="13.2">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="21"/>
@@ -25337,7 +25381,7 @@
       <c r="AB775" s="3"/>
       <c r="AC775" s="3"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:29" ht="13.2">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="21"/>
@@ -25368,7 +25412,7 @@
       <c r="AB776" s="3"/>
       <c r="AC776" s="3"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:29" ht="13.2">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="21"/>
@@ -25399,7 +25443,7 @@
       <c r="AB777" s="3"/>
       <c r="AC777" s="3"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:29" ht="13.2">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="21"/>
@@ -25430,7 +25474,7 @@
       <c r="AB778" s="3"/>
       <c r="AC778" s="3"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:29" ht="13.2">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="21"/>
@@ -25461,7 +25505,7 @@
       <c r="AB779" s="3"/>
       <c r="AC779" s="3"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:29" ht="13.2">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="21"/>
@@ -25492,7 +25536,7 @@
       <c r="AB780" s="3"/>
       <c r="AC780" s="3"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:29" ht="13.2">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="21"/>
@@ -25523,7 +25567,7 @@
       <c r="AB781" s="3"/>
       <c r="AC781" s="3"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:29" ht="13.2">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="21"/>
@@ -25554,7 +25598,7 @@
       <c r="AB782" s="3"/>
       <c r="AC782" s="3"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:29" ht="13.2">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="21"/>
@@ -25585,7 +25629,7 @@
       <c r="AB783" s="3"/>
       <c r="AC783" s="3"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:29" ht="13.2">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="21"/>
@@ -25616,7 +25660,7 @@
       <c r="AB784" s="3"/>
       <c r="AC784" s="3"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:29" ht="13.2">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="21"/>
@@ -25647,7 +25691,7 @@
       <c r="AB785" s="3"/>
       <c r="AC785" s="3"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:29" ht="13.2">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="21"/>
@@ -25678,7 +25722,7 @@
       <c r="AB786" s="3"/>
       <c r="AC786" s="3"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:29" ht="13.2">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="21"/>
@@ -25709,7 +25753,7 @@
       <c r="AB787" s="3"/>
       <c r="AC787" s="3"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:29" ht="13.2">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="21"/>
@@ -25740,7 +25784,7 @@
       <c r="AB788" s="3"/>
       <c r="AC788" s="3"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:29" ht="13.2">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="21"/>
@@ -25771,7 +25815,7 @@
       <c r="AB789" s="3"/>
       <c r="AC789" s="3"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:29" ht="13.2">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="21"/>
@@ -25802,7 +25846,7 @@
       <c r="AB790" s="3"/>
       <c r="AC790" s="3"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:29" ht="13.2">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="21"/>
@@ -25833,7 +25877,7 @@
       <c r="AB791" s="3"/>
       <c r="AC791" s="3"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:29" ht="13.2">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="21"/>
@@ -25864,7 +25908,7 @@
       <c r="AB792" s="3"/>
       <c r="AC792" s="3"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:29" ht="13.2">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="21"/>
@@ -25895,7 +25939,7 @@
       <c r="AB793" s="3"/>
       <c r="AC793" s="3"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:29" ht="13.2">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="21"/>
@@ -25926,7 +25970,7 @@
       <c r="AB794" s="3"/>
       <c r="AC794" s="3"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:29" ht="13.2">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="21"/>
@@ -25957,7 +26001,7 @@
       <c r="AB795" s="3"/>
       <c r="AC795" s="3"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:29" ht="13.2">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="21"/>
@@ -25988,7 +26032,7 @@
       <c r="AB796" s="3"/>
       <c r="AC796" s="3"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:29" ht="13.2">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="21"/>
@@ -26019,7 +26063,7 @@
       <c r="AB797" s="3"/>
       <c r="AC797" s="3"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:29" ht="13.2">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="21"/>
@@ -26050,7 +26094,7 @@
       <c r="AB798" s="3"/>
       <c r="AC798" s="3"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:29" ht="13.2">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="21"/>
@@ -26081,7 +26125,7 @@
       <c r="AB799" s="3"/>
       <c r="AC799" s="3"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:29" ht="13.2">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="21"/>
@@ -26112,7 +26156,7 @@
       <c r="AB800" s="3"/>
       <c r="AC800" s="3"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:29" ht="13.2">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="21"/>
@@ -26143,7 +26187,7 @@
       <c r="AB801" s="3"/>
       <c r="AC801" s="3"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:29" ht="13.2">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="21"/>
@@ -26174,7 +26218,7 @@
       <c r="AB802" s="3"/>
       <c r="AC802" s="3"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:29" ht="13.2">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="21"/>
@@ -26205,7 +26249,7 @@
       <c r="AB803" s="3"/>
       <c r="AC803" s="3"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:29" ht="13.2">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="21"/>
@@ -26236,7 +26280,7 @@
       <c r="AB804" s="3"/>
       <c r="AC804" s="3"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:29" ht="13.2">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="21"/>
@@ -26267,7 +26311,7 @@
       <c r="AB805" s="3"/>
       <c r="AC805" s="3"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:29" ht="13.2">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="21"/>
@@ -26298,7 +26342,7 @@
       <c r="AB806" s="3"/>
       <c r="AC806" s="3"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:29" ht="13.2">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="21"/>
@@ -26329,7 +26373,7 @@
       <c r="AB807" s="3"/>
       <c r="AC807" s="3"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:29" ht="13.2">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="21"/>
@@ -26360,7 +26404,7 @@
       <c r="AB808" s="3"/>
       <c r="AC808" s="3"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:29" ht="13.2">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="21"/>
@@ -26391,7 +26435,7 @@
       <c r="AB809" s="3"/>
       <c r="AC809" s="3"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:29" ht="13.2">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="21"/>
@@ -26422,7 +26466,7 @@
       <c r="AB810" s="3"/>
       <c r="AC810" s="3"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:29" ht="13.2">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="21"/>
@@ -26453,7 +26497,7 @@
       <c r="AB811" s="3"/>
       <c r="AC811" s="3"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:29" ht="13.2">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="21"/>
@@ -26484,7 +26528,7 @@
       <c r="AB812" s="3"/>
       <c r="AC812" s="3"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:29" ht="13.2">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="21"/>
@@ -26515,7 +26559,7 @@
       <c r="AB813" s="3"/>
       <c r="AC813" s="3"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:29" ht="13.2">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="21"/>
@@ -26546,7 +26590,7 @@
       <c r="AB814" s="3"/>
       <c r="AC814" s="3"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:29" ht="13.2">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="21"/>
@@ -26577,7 +26621,7 @@
       <c r="AB815" s="3"/>
       <c r="AC815" s="3"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:29" ht="13.2">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="21"/>
@@ -26608,7 +26652,7 @@
       <c r="AB816" s="3"/>
       <c r="AC816" s="3"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:29" ht="13.2">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="21"/>
@@ -26639,7 +26683,7 @@
       <c r="AB817" s="3"/>
       <c r="AC817" s="3"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:29" ht="13.2">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="21"/>
@@ -26670,7 +26714,7 @@
       <c r="AB818" s="3"/>
       <c r="AC818" s="3"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:29" ht="13.2">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="21"/>
@@ -26701,7 +26745,7 @@
       <c r="AB819" s="3"/>
       <c r="AC819" s="3"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:29" ht="13.2">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="21"/>
@@ -26732,7 +26776,7 @@
       <c r="AB820" s="3"/>
       <c r="AC820" s="3"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:29" ht="13.2">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="21"/>
@@ -26763,7 +26807,7 @@
       <c r="AB821" s="3"/>
       <c r="AC821" s="3"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:29" ht="13.2">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="21"/>
@@ -26794,7 +26838,7 @@
       <c r="AB822" s="3"/>
       <c r="AC822" s="3"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:29" ht="13.2">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="21"/>
@@ -26825,7 +26869,7 @@
       <c r="AB823" s="3"/>
       <c r="AC823" s="3"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:29" ht="13.2">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="21"/>
@@ -26856,7 +26900,7 @@
       <c r="AB824" s="3"/>
       <c r="AC824" s="3"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:29" ht="13.2">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="21"/>
@@ -26887,7 +26931,7 @@
       <c r="AB825" s="3"/>
       <c r="AC825" s="3"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:29" ht="13.2">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="21"/>
@@ -26918,7 +26962,7 @@
       <c r="AB826" s="3"/>
       <c r="AC826" s="3"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:29" ht="13.2">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="21"/>
@@ -26949,7 +26993,7 @@
       <c r="AB827" s="3"/>
       <c r="AC827" s="3"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:29" ht="13.2">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="21"/>
@@ -26980,7 +27024,7 @@
       <c r="AB828" s="3"/>
       <c r="AC828" s="3"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:29" ht="13.2">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="21"/>
@@ -27011,7 +27055,7 @@
       <c r="AB829" s="3"/>
       <c r="AC829" s="3"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:29" ht="13.2">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="21"/>
@@ -27042,7 +27086,7 @@
       <c r="AB830" s="3"/>
       <c r="AC830" s="3"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:29" ht="13.2">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="21"/>
@@ -27073,7 +27117,7 @@
       <c r="AB831" s="3"/>
       <c r="AC831" s="3"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:29" ht="13.2">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="21"/>
@@ -27104,7 +27148,7 @@
       <c r="AB832" s="3"/>
       <c r="AC832" s="3"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:29" ht="13.2">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="21"/>
@@ -27135,7 +27179,7 @@
       <c r="AB833" s="3"/>
       <c r="AC833" s="3"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:29" ht="13.2">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="21"/>
@@ -27166,7 +27210,7 @@
       <c r="AB834" s="3"/>
       <c r="AC834" s="3"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:29" ht="13.2">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="21"/>
@@ -27197,7 +27241,7 @@
       <c r="AB835" s="3"/>
       <c r="AC835" s="3"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:29" ht="13.2">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="21"/>
@@ -27228,7 +27272,7 @@
       <c r="AB836" s="3"/>
       <c r="AC836" s="3"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:29" ht="13.2">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="21"/>
@@ -27259,7 +27303,7 @@
       <c r="AB837" s="3"/>
       <c r="AC837" s="3"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:29" ht="13.2">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="21"/>
@@ -27290,7 +27334,7 @@
       <c r="AB838" s="3"/>
       <c r="AC838" s="3"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:29" ht="13.2">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="21"/>
@@ -27321,7 +27365,7 @@
       <c r="AB839" s="3"/>
       <c r="AC839" s="3"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:29" ht="13.2">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="21"/>
@@ -27352,7 +27396,7 @@
       <c r="AB840" s="3"/>
       <c r="AC840" s="3"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:29" ht="13.2">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="21"/>
@@ -27383,7 +27427,7 @@
       <c r="AB841" s="3"/>
       <c r="AC841" s="3"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:29" ht="13.2">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="21"/>
@@ -27414,7 +27458,7 @@
       <c r="AB842" s="3"/>
       <c r="AC842" s="3"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:29" ht="13.2">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="21"/>
@@ -27445,7 +27489,7 @@
       <c r="AB843" s="3"/>
       <c r="AC843" s="3"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:29" ht="13.2">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="21"/>
@@ -27476,7 +27520,7 @@
       <c r="AB844" s="3"/>
       <c r="AC844" s="3"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:29" ht="13.2">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="21"/>
@@ -27507,7 +27551,7 @@
       <c r="AB845" s="3"/>
       <c r="AC845" s="3"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:29" ht="13.2">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="21"/>
@@ -27538,7 +27582,7 @@
       <c r="AB846" s="3"/>
       <c r="AC846" s="3"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:29" ht="13.2">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="21"/>
@@ -27569,7 +27613,7 @@
       <c r="AB847" s="3"/>
       <c r="AC847" s="3"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:29" ht="13.2">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="21"/>
@@ -27600,7 +27644,7 @@
       <c r="AB848" s="3"/>
       <c r="AC848" s="3"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:29" ht="13.2">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="21"/>
@@ -27631,7 +27675,7 @@
       <c r="AB849" s="3"/>
       <c r="AC849" s="3"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:29" ht="13.2">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="21"/>
@@ -27662,7 +27706,7 @@
       <c r="AB850" s="3"/>
       <c r="AC850" s="3"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:29" ht="13.2">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="21"/>
@@ -27693,7 +27737,7 @@
       <c r="AB851" s="3"/>
       <c r="AC851" s="3"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:29" ht="13.2">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="21"/>
@@ -27724,7 +27768,7 @@
       <c r="AB852" s="3"/>
       <c r="AC852" s="3"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:29" ht="13.2">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="21"/>
@@ -27755,7 +27799,7 @@
       <c r="AB853" s="3"/>
       <c r="AC853" s="3"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:29" ht="13.2">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="21"/>
@@ -27786,7 +27830,7 @@
       <c r="AB854" s="3"/>
       <c r="AC854" s="3"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:29" ht="13.2">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="21"/>
@@ -27817,7 +27861,7 @@
       <c r="AB855" s="3"/>
       <c r="AC855" s="3"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:29" ht="13.2">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="21"/>
@@ -27848,7 +27892,7 @@
       <c r="AB856" s="3"/>
       <c r="AC856" s="3"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:29" ht="13.2">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="21"/>
@@ -27879,7 +27923,7 @@
       <c r="AB857" s="3"/>
       <c r="AC857" s="3"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:29" ht="13.2">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="21"/>
@@ -27910,7 +27954,7 @@
       <c r="AB858" s="3"/>
       <c r="AC858" s="3"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:29" ht="13.2">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="21"/>
@@ -27941,7 +27985,7 @@
       <c r="AB859" s="3"/>
       <c r="AC859" s="3"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:29" ht="13.2">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="21"/>
@@ -27972,7 +28016,7 @@
       <c r="AB860" s="3"/>
       <c r="AC860" s="3"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:29" ht="13.2">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="21"/>
@@ -28003,7 +28047,7 @@
       <c r="AB861" s="3"/>
       <c r="AC861" s="3"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:29" ht="13.2">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="21"/>
@@ -28034,7 +28078,7 @@
       <c r="AB862" s="3"/>
       <c r="AC862" s="3"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:29" ht="13.2">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="21"/>
@@ -28065,7 +28109,7 @@
       <c r="AB863" s="3"/>
       <c r="AC863" s="3"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:29" ht="13.2">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="21"/>
@@ -28096,7 +28140,7 @@
       <c r="AB864" s="3"/>
       <c r="AC864" s="3"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:29" ht="13.2">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="21"/>
@@ -28127,7 +28171,7 @@
       <c r="AB865" s="3"/>
       <c r="AC865" s="3"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:29" ht="13.2">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="21"/>
@@ -28158,7 +28202,7 @@
       <c r="AB866" s="3"/>
       <c r="AC866" s="3"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:29" ht="13.2">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="21"/>
@@ -28189,7 +28233,7 @@
       <c r="AB867" s="3"/>
       <c r="AC867" s="3"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:29" ht="13.2">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="21"/>
@@ -28220,7 +28264,7 @@
       <c r="AB868" s="3"/>
       <c r="AC868" s="3"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:29" ht="13.2">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="21"/>
@@ -28251,7 +28295,7 @@
       <c r="AB869" s="3"/>
       <c r="AC869" s="3"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:29" ht="13.2">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="21"/>
@@ -28282,7 +28326,7 @@
       <c r="AB870" s="3"/>
       <c r="AC870" s="3"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:29" ht="13.2">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="21"/>
@@ -28313,7 +28357,7 @@
       <c r="AB871" s="3"/>
       <c r="AC871" s="3"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:29" ht="13.2">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="21"/>
@@ -28344,7 +28388,7 @@
       <c r="AB872" s="3"/>
       <c r="AC872" s="3"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:29" ht="13.2">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="21"/>
@@ -28375,7 +28419,7 @@
       <c r="AB873" s="3"/>
       <c r="AC873" s="3"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:29" ht="13.2">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="21"/>
@@ -28406,7 +28450,7 @@
       <c r="AB874" s="3"/>
       <c r="AC874" s="3"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:29" ht="13.2">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="21"/>
@@ -28437,7 +28481,7 @@
       <c r="AB875" s="3"/>
       <c r="AC875" s="3"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:29" ht="13.2">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="21"/>
@@ -28468,7 +28512,7 @@
       <c r="AB876" s="3"/>
       <c r="AC876" s="3"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:29" ht="13.2">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="21"/>
@@ -28499,7 +28543,7 @@
       <c r="AB877" s="3"/>
       <c r="AC877" s="3"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:29" ht="13.2">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="21"/>
@@ -28530,7 +28574,7 @@
       <c r="AB878" s="3"/>
       <c r="AC878" s="3"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:29" ht="13.2">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="21"/>
@@ -28561,7 +28605,7 @@
       <c r="AB879" s="3"/>
       <c r="AC879" s="3"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:29" ht="13.2">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="21"/>
@@ -28592,7 +28636,7 @@
       <c r="AB880" s="3"/>
       <c r="AC880" s="3"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:29" ht="13.2">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="21"/>
@@ -28623,7 +28667,7 @@
       <c r="AB881" s="3"/>
       <c r="AC881" s="3"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:29" ht="13.2">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="21"/>
@@ -28654,7 +28698,7 @@
       <c r="AB882" s="3"/>
       <c r="AC882" s="3"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:29" ht="13.2">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="21"/>
@@ -28685,7 +28729,7 @@
       <c r="AB883" s="3"/>
       <c r="AC883" s="3"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:29" ht="13.2">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="21"/>
@@ -28716,7 +28760,7 @@
       <c r="AB884" s="3"/>
       <c r="AC884" s="3"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:29" ht="13.2">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="21"/>
@@ -28747,7 +28791,7 @@
       <c r="AB885" s="3"/>
       <c r="AC885" s="3"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:29" ht="13.2">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="21"/>
@@ -28778,7 +28822,7 @@
       <c r="AB886" s="3"/>
       <c r="AC886" s="3"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:29" ht="13.2">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="21"/>
@@ -28809,7 +28853,7 @@
       <c r="AB887" s="3"/>
       <c r="AC887" s="3"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:29" ht="13.2">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="21"/>
@@ -28840,7 +28884,7 @@
       <c r="AB888" s="3"/>
       <c r="AC888" s="3"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:29" ht="13.2">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="21"/>
@@ -28871,7 +28915,7 @@
       <c r="AB889" s="3"/>
       <c r="AC889" s="3"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:29" ht="13.2">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="21"/>
@@ -28902,7 +28946,7 @@
       <c r="AB890" s="3"/>
       <c r="AC890" s="3"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:29" ht="13.2">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="21"/>
@@ -28933,7 +28977,7 @@
       <c r="AB891" s="3"/>
       <c r="AC891" s="3"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:29" ht="13.2">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="21"/>
@@ -28964,7 +29008,7 @@
       <c r="AB892" s="3"/>
       <c r="AC892" s="3"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:29" ht="13.2">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="21"/>
@@ -28995,7 +29039,7 @@
       <c r="AB893" s="3"/>
       <c r="AC893" s="3"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:29" ht="13.2">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="21"/>
@@ -29026,7 +29070,7 @@
       <c r="AB894" s="3"/>
       <c r="AC894" s="3"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:29" ht="13.2">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="21"/>
@@ -29057,7 +29101,7 @@
       <c r="AB895" s="3"/>
       <c r="AC895" s="3"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:29" ht="13.2">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="21"/>
@@ -29088,7 +29132,7 @@
       <c r="AB896" s="3"/>
       <c r="AC896" s="3"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:29" ht="13.2">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="21"/>
@@ -29119,7 +29163,7 @@
       <c r="AB897" s="3"/>
       <c r="AC897" s="3"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:29" ht="13.2">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="21"/>
@@ -29150,7 +29194,7 @@
       <c r="AB898" s="3"/>
       <c r="AC898" s="3"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:29" ht="13.2">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="21"/>
@@ -29181,7 +29225,7 @@
       <c r="AB899" s="3"/>
       <c r="AC899" s="3"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:29" ht="13.2">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="21"/>
@@ -29212,7 +29256,7 @@
       <c r="AB900" s="3"/>
       <c r="AC900" s="3"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:29" ht="13.2">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="21"/>
@@ -29243,7 +29287,7 @@
       <c r="AB901" s="3"/>
       <c r="AC901" s="3"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:29" ht="13.2">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="21"/>
@@ -29274,7 +29318,7 @@
       <c r="AB902" s="3"/>
       <c r="AC902" s="3"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:29" ht="13.2">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="21"/>
@@ -29305,7 +29349,7 @@
       <c r="AB903" s="3"/>
       <c r="AC903" s="3"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:29" ht="13.2">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="21"/>
@@ -29336,7 +29380,7 @@
       <c r="AB904" s="3"/>
       <c r="AC904" s="3"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:29" ht="13.2">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="21"/>
@@ -29367,7 +29411,7 @@
       <c r="AB905" s="3"/>
       <c r="AC905" s="3"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:29" ht="13.2">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="21"/>
@@ -29398,7 +29442,7 @@
       <c r="AB906" s="3"/>
       <c r="AC906" s="3"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:29" ht="13.2">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="21"/>
@@ -29429,7 +29473,7 @@
       <c r="AB907" s="3"/>
       <c r="AC907" s="3"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:29" ht="13.2">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="21"/>
@@ -29460,7 +29504,7 @@
       <c r="AB908" s="3"/>
       <c r="AC908" s="3"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:29" ht="13.2">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="21"/>
@@ -29491,7 +29535,7 @@
       <c r="AB909" s="3"/>
       <c r="AC909" s="3"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:29" ht="13.2">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="21"/>
@@ -29522,7 +29566,7 @@
       <c r="AB910" s="3"/>
       <c r="AC910" s="3"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:29" ht="13.2">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="21"/>
@@ -29553,7 +29597,7 @@
       <c r="AB911" s="3"/>
       <c r="AC911" s="3"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:29" ht="13.2">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="21"/>
@@ -29584,7 +29628,7 @@
       <c r="AB912" s="3"/>
       <c r="AC912" s="3"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:29" ht="13.2">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="21"/>
@@ -29615,7 +29659,7 @@
       <c r="AB913" s="3"/>
       <c r="AC913" s="3"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:29" ht="13.2">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="21"/>
@@ -29646,7 +29690,7 @@
       <c r="AB914" s="3"/>
       <c r="AC914" s="3"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:29" ht="13.2">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="21"/>
@@ -29677,7 +29721,7 @@
       <c r="AB915" s="3"/>
       <c r="AC915" s="3"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:29" ht="13.2">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="21"/>
@@ -29708,7 +29752,7 @@
       <c r="AB916" s="3"/>
       <c r="AC916" s="3"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:29" ht="13.2">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="21"/>
@@ -29739,7 +29783,7 @@
       <c r="AB917" s="3"/>
       <c r="AC917" s="3"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:29" ht="13.2">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="21"/>
@@ -29770,7 +29814,7 @@
       <c r="AB918" s="3"/>
       <c r="AC918" s="3"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:29" ht="13.2">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="21"/>
@@ -29801,7 +29845,7 @@
       <c r="AB919" s="3"/>
       <c r="AC919" s="3"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:29" ht="13.2">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="21"/>
@@ -29832,7 +29876,7 @@
       <c r="AB920" s="3"/>
       <c r="AC920" s="3"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:29" ht="13.2">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="21"/>
@@ -29863,7 +29907,7 @@
       <c r="AB921" s="3"/>
       <c r="AC921" s="3"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:29" ht="13.2">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="21"/>
@@ -29894,7 +29938,7 @@
       <c r="AB922" s="3"/>
       <c r="AC922" s="3"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:29" ht="13.2">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="21"/>
@@ -29925,7 +29969,7 @@
       <c r="AB923" s="3"/>
       <c r="AC923" s="3"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:29" ht="13.2">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="21"/>
@@ -29956,7 +30000,7 @@
       <c r="AB924" s="3"/>
       <c r="AC924" s="3"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:29" ht="13.2">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="21"/>
@@ -29987,7 +30031,7 @@
       <c r="AB925" s="3"/>
       <c r="AC925" s="3"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:29" ht="13.2">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="21"/>
@@ -30018,7 +30062,7 @@
       <c r="AB926" s="3"/>
       <c r="AC926" s="3"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:29" ht="13.2">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="21"/>
@@ -30049,7 +30093,7 @@
       <c r="AB927" s="3"/>
       <c r="AC927" s="3"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:29" ht="13.2">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="21"/>
@@ -30080,7 +30124,7 @@
       <c r="AB928" s="3"/>
       <c r="AC928" s="3"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:29" ht="13.2">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="21"/>
@@ -30111,7 +30155,7 @@
       <c r="AB929" s="3"/>
       <c r="AC929" s="3"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:29" ht="13.2">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="21"/>
@@ -30142,7 +30186,7 @@
       <c r="AB930" s="3"/>
       <c r="AC930" s="3"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:29" ht="13.2">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="21"/>
@@ -30173,7 +30217,7 @@
       <c r="AB931" s="3"/>
       <c r="AC931" s="3"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:29" ht="13.2">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="21"/>
@@ -30204,7 +30248,7 @@
       <c r="AB932" s="3"/>
       <c r="AC932" s="3"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:29" ht="13.2">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="21"/>
@@ -30235,7 +30279,7 @@
       <c r="AB933" s="3"/>
       <c r="AC933" s="3"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:29" ht="13.2">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="21"/>
@@ -30266,7 +30310,7 @@
       <c r="AB934" s="3"/>
       <c r="AC934" s="3"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:29" ht="13.2">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="21"/>
@@ -30297,7 +30341,7 @@
       <c r="AB935" s="3"/>
       <c r="AC935" s="3"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:29" ht="13.2">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="21"/>
@@ -30328,7 +30372,7 @@
       <c r="AB936" s="3"/>
       <c r="AC936" s="3"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:29" ht="13.2">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="21"/>
@@ -30359,7 +30403,7 @@
       <c r="AB937" s="3"/>
       <c r="AC937" s="3"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:29" ht="13.2">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="21"/>
@@ -30390,7 +30434,7 @@
       <c r="AB938" s="3"/>
       <c r="AC938" s="3"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:29" ht="13.2">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="21"/>
@@ -30421,7 +30465,7 @@
       <c r="AB939" s="3"/>
       <c r="AC939" s="3"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:29" ht="13.2">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="21"/>
@@ -30452,7 +30496,7 @@
       <c r="AB940" s="3"/>
       <c r="AC940" s="3"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:29" ht="13.2">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="21"/>
@@ -30483,7 +30527,7 @@
       <c r="AB941" s="3"/>
       <c r="AC941" s="3"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:29" ht="13.2">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="21"/>
@@ -30514,7 +30558,7 @@
       <c r="AB942" s="3"/>
       <c r="AC942" s="3"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:29" ht="13.2">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="21"/>
@@ -30545,7 +30589,7 @@
       <c r="AB943" s="3"/>
       <c r="AC943" s="3"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:29" ht="13.2">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="21"/>
@@ -30576,7 +30620,7 @@
       <c r="AB944" s="3"/>
       <c r="AC944" s="3"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:29" ht="13.2">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="21"/>
@@ -30607,7 +30651,7 @@
       <c r="AB945" s="3"/>
       <c r="AC945" s="3"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:29" ht="13.2">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="21"/>
@@ -30638,7 +30682,7 @@
       <c r="AB946" s="3"/>
       <c r="AC946" s="3"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:29" ht="13.2">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="21"/>
@@ -30669,7 +30713,7 @@
       <c r="AB947" s="3"/>
       <c r="AC947" s="3"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:29" ht="13.2">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="21"/>
@@ -30700,7 +30744,7 @@
       <c r="AB948" s="3"/>
       <c r="AC948" s="3"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:29" ht="13.2">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="21"/>
@@ -30731,7 +30775,7 @@
       <c r="AB949" s="3"/>
       <c r="AC949" s="3"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:29" ht="13.2">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="21"/>
@@ -30762,7 +30806,7 @@
       <c r="AB950" s="3"/>
       <c r="AC950" s="3"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:29" ht="13.2">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="21"/>
@@ -30793,7 +30837,7 @@
       <c r="AB951" s="3"/>
       <c r="AC951" s="3"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:29" ht="13.2">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="21"/>
@@ -30824,7 +30868,7 @@
       <c r="AB952" s="3"/>
       <c r="AC952" s="3"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:29" ht="13.2">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="21"/>
@@ -30855,7 +30899,7 @@
       <c r="AB953" s="3"/>
       <c r="AC953" s="3"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:29" ht="13.2">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="21"/>
@@ -30886,7 +30930,7 @@
       <c r="AB954" s="3"/>
       <c r="AC954" s="3"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:29" ht="13.2">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="21"/>
@@ -30917,7 +30961,7 @@
       <c r="AB955" s="3"/>
       <c r="AC955" s="3"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:29" ht="13.2">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="21"/>
@@ -30948,7 +30992,7 @@
       <c r="AB956" s="3"/>
       <c r="AC956" s="3"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:29" ht="13.2">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="21"/>
@@ -30979,7 +31023,7 @@
       <c r="AB957" s="3"/>
       <c r="AC957" s="3"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:29" ht="13.2">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="21"/>
@@ -31010,7 +31054,7 @@
       <c r="AB958" s="3"/>
       <c r="AC958" s="3"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:29" ht="13.2">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="21"/>
@@ -31041,7 +31085,7 @@
       <c r="AB959" s="3"/>
       <c r="AC959" s="3"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:29" ht="13.2">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="21"/>
@@ -31072,7 +31116,7 @@
       <c r="AB960" s="3"/>
       <c r="AC960" s="3"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:29" ht="13.2">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="21"/>
@@ -31103,7 +31147,7 @@
       <c r="AB961" s="3"/>
       <c r="AC961" s="3"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:29" ht="13.2">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="21"/>
@@ -31134,7 +31178,7 @@
       <c r="AB962" s="3"/>
       <c r="AC962" s="3"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:29" ht="13.2">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="21"/>
@@ -31165,7 +31209,7 @@
       <c r="AB963" s="3"/>
       <c r="AC963" s="3"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:29" ht="13.2">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="21"/>
@@ -31196,7 +31240,7 @@
       <c r="AB964" s="3"/>
       <c r="AC964" s="3"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:29" ht="13.2">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="21"/>
@@ -31227,7 +31271,7 @@
       <c r="AB965" s="3"/>
       <c r="AC965" s="3"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:29" ht="13.2">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="21"/>
@@ -31258,7 +31302,7 @@
       <c r="AB966" s="3"/>
       <c r="AC966" s="3"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:29" ht="13.2">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="21"/>
@@ -31289,7 +31333,7 @@
       <c r="AB967" s="3"/>
       <c r="AC967" s="3"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:29" ht="13.2">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="21"/>
@@ -31320,7 +31364,7 @@
       <c r="AB968" s="3"/>
       <c r="AC968" s="3"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:29" ht="13.2">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="21"/>
@@ -31351,7 +31395,7 @@
       <c r="AB969" s="3"/>
       <c r="AC969" s="3"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:29" ht="13.2">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="21"/>
@@ -31382,7 +31426,7 @@
       <c r="AB970" s="3"/>
       <c r="AC970" s="3"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:29" ht="13.2">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="21"/>
@@ -31413,7 +31457,7 @@
       <c r="AB971" s="3"/>
       <c r="AC971" s="3"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:29" ht="13.2">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="21"/>
@@ -31444,7 +31488,7 @@
       <c r="AB972" s="3"/>
       <c r="AC972" s="3"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:29" ht="13.2">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="21"/>
@@ -31475,7 +31519,7 @@
       <c r="AB973" s="3"/>
       <c r="AC973" s="3"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:29" ht="13.2">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="21"/>
@@ -31506,7 +31550,7 @@
       <c r="AB974" s="3"/>
       <c r="AC974" s="3"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:29" ht="13.2">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="21"/>
@@ -31537,7 +31581,7 @@
       <c r="AB975" s="3"/>
       <c r="AC975" s="3"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:29" ht="13.2">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="21"/>
@@ -31568,7 +31612,7 @@
       <c r="AB976" s="3"/>
       <c r="AC976" s="3"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:29" ht="15.6">
       <c r="A977" s="22"/>
       <c r="B977" s="22"/>
       <c r="C977" s="23"/>
@@ -31599,7 +31643,7 @@
       <c r="AB977" s="3"/>
       <c r="AC977" s="3"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:29" ht="15.6">
       <c r="A978" s="22"/>
       <c r="B978" s="22"/>
       <c r="C978" s="23"/>
@@ -31630,7 +31674,7 @@
       <c r="AB978" s="3"/>
       <c r="AC978" s="3"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:29" ht="15.6">
       <c r="A979" s="22"/>
       <c r="B979" s="22"/>
       <c r="C979" s="23"/>
@@ -31661,7 +31705,7 @@
       <c r="AB979" s="3"/>
       <c r="AC979" s="3"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:29" ht="15.6">
       <c r="A980" s="22"/>
       <c r="B980" s="22"/>
       <c r="C980" s="23"/>
@@ -31692,7 +31736,7 @@
       <c r="AB980" s="3"/>
       <c r="AC980" s="3"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:29" ht="15.6">
       <c r="A981" s="22"/>
       <c r="B981" s="22"/>
       <c r="C981" s="23"/>
@@ -31723,7 +31767,7 @@
       <c r="AB981" s="3"/>
       <c r="AC981" s="3"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:29" ht="15.6">
       <c r="A982" s="22"/>
       <c r="B982" s="22"/>
       <c r="C982" s="23"/>
@@ -31754,7 +31798,7 @@
       <c r="AB982" s="3"/>
       <c r="AC982" s="3"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:29" ht="15.6">
       <c r="A983" s="22"/>
       <c r="B983" s="22"/>
       <c r="C983" s="23"/>
@@ -31785,7 +31829,7 @@
       <c r="AB983" s="3"/>
       <c r="AC983" s="3"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:29" ht="15.6">
       <c r="A984" s="22"/>
       <c r="B984" s="22"/>
       <c r="C984" s="23"/>
@@ -31816,7 +31860,7 @@
       <c r="AB984" s="3"/>
       <c r="AC984" s="3"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:29" ht="15.6">
       <c r="A985" s="22"/>
       <c r="B985" s="22"/>
       <c r="C985" s="23"/>
@@ -31847,7 +31891,7 @@
       <c r="AB985" s="3"/>
       <c r="AC985" s="3"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:29" ht="15.6">
       <c r="A986" s="22"/>
       <c r="B986" s="22"/>
       <c r="C986" s="23"/>
@@ -31878,7 +31922,7 @@
       <c r="AB986" s="3"/>
       <c r="AC986" s="3"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:29" ht="15.6">
       <c r="A987" s="22"/>
       <c r="B987" s="22"/>
       <c r="C987" s="23"/>
@@ -31909,7 +31953,7 @@
       <c r="AB987" s="3"/>
       <c r="AC987" s="3"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:29" ht="15.6">
       <c r="A988" s="22"/>
       <c r="B988" s="22"/>
       <c r="C988" s="23"/>
@@ -31940,7 +31984,7 @@
       <c r="AB988" s="3"/>
       <c r="AC988" s="3"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:29" ht="15.6">
       <c r="A989" s="22"/>
       <c r="B989" s="22"/>
       <c r="C989" s="23"/>
@@ -31971,7 +32015,7 @@
       <c r="AB989" s="3"/>
       <c r="AC989" s="3"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:29" ht="15.6">
       <c r="A990" s="22"/>
       <c r="B990" s="22"/>
       <c r="C990" s="23"/>
@@ -32002,7 +32046,7 @@
       <c r="AB990" s="3"/>
       <c r="AC990" s="3"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:29" ht="15.6">
       <c r="A991" s="22"/>
       <c r="B991" s="22"/>
       <c r="C991" s="23"/>
@@ -32033,7 +32077,7 @@
       <c r="AB991" s="3"/>
       <c r="AC991" s="3"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:29" ht="15.6">
       <c r="A992" s="22"/>
       <c r="B992" s="22"/>
       <c r="C992" s="23"/>
@@ -32064,7 +32108,7 @@
       <c r="AB992" s="3"/>
       <c r="AC992" s="3"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:29" ht="15.6">
       <c r="A993" s="22"/>
       <c r="B993" s="22"/>
       <c r="C993" s="23"/>
@@ -32095,7 +32139,7 @@
       <c r="AB993" s="3"/>
       <c r="AC993" s="3"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:29" ht="15.6">
       <c r="A994" s="22"/>
       <c r="B994" s="22"/>
       <c r="C994" s="23"/>
@@ -32126,7 +32170,7 @@
       <c r="AB994" s="3"/>
       <c r="AC994" s="3"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:29" ht="15.6">
       <c r="A995" s="22"/>
       <c r="B995" s="22"/>
       <c r="C995" s="23"/>
@@ -32157,7 +32201,7 @@
       <c r="AB995" s="3"/>
       <c r="AC995" s="3"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:29" ht="15.6">
       <c r="A996" s="22"/>
       <c r="B996" s="22"/>
       <c r="C996" s="23"/>
@@ -32188,7 +32232,7 @@
       <c r="AB996" s="3"/>
       <c r="AC996" s="3"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:29" ht="15.6">
       <c r="A997" s="22"/>
       <c r="B997" s="22"/>
       <c r="C997" s="23"/>
@@ -32219,7 +32263,7 @@
       <c r="AB997" s="3"/>
       <c r="AC997" s="3"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:29" ht="15.6">
       <c r="A998" s="22"/>
       <c r="B998" s="22"/>
       <c r="C998" s="23"/>
@@ -32250,7 +32294,7 @@
       <c r="AB998" s="3"/>
       <c r="AC998" s="3"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:29" ht="15.6">
       <c r="A999" s="22"/>
       <c r="B999" s="22"/>
       <c r="C999" s="23"/>
@@ -32281,7 +32325,7 @@
       <c r="AB999" s="3"/>
       <c r="AC999" s="3"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:29" ht="15.6">
       <c r="A1000" s="22"/>
       <c r="B1000" s="22"/>
       <c r="C1000" s="23"/>
@@ -32314,43 +32358,43 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G4"/>
-    <hyperlink r:id="rId2" ref="G5"/>
-    <hyperlink r:id="rId3" ref="G6"/>
-    <hyperlink r:id="rId4" ref="H6"/>
-    <hyperlink r:id="rId5" ref="G7"/>
-    <hyperlink r:id="rId6" ref="G8"/>
-    <hyperlink r:id="rId7" ref="G9"/>
-    <hyperlink r:id="rId8" ref="G10"/>
-    <hyperlink r:id="rId9" ref="G11"/>
-    <hyperlink r:id="rId10" ref="G12"/>
-    <hyperlink r:id="rId11" ref="G13"/>
-    <hyperlink r:id="rId12" ref="H13"/>
-    <hyperlink r:id="rId13" ref="G14"/>
-    <hyperlink r:id="rId14" ref="G15"/>
-    <hyperlink r:id="rId15" ref="G16"/>
-    <hyperlink r:id="rId16" ref="H16"/>
-    <hyperlink r:id="rId17" ref="G17"/>
-    <hyperlink r:id="rId18" ref="B18"/>
-    <hyperlink r:id="rId19" ref="G18"/>
-    <hyperlink r:id="rId20" ref="H18"/>
-    <hyperlink r:id="rId21" ref="G19"/>
-    <hyperlink r:id="rId22" ref="G21"/>
-    <hyperlink r:id="rId23" ref="H21"/>
-    <hyperlink r:id="rId24" ref="B22"/>
-    <hyperlink r:id="rId25" ref="G22"/>
-    <hyperlink r:id="rId26" ref="G24"/>
-    <hyperlink r:id="rId27" ref="G25"/>
-    <hyperlink r:id="rId28" ref="G26"/>
-    <hyperlink r:id="rId29" ref="G27"/>
-    <hyperlink r:id="rId30" ref="H27"/>
-    <hyperlink r:id="rId31" ref="G28"/>
-    <hyperlink r:id="rId32" ref="G29"/>
-    <hyperlink r:id="rId33" ref="G30"/>
-    <hyperlink r:id="rId34" ref="G34"/>
-    <hyperlink r:id="rId35" ref="G35"/>
-    <hyperlink r:id="rId36" ref="H35"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G18" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H18" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G19" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G21" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H21" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B22" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G22" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G24" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G25" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G26" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G27" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H27" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G28" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G29" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G30" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G34" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G35" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H35" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
   </hyperlinks>
-  <drawing r:id="rId37"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>